--- a/storage/app/excel/template.xlsx
+++ b/storage/app/excel/template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1008">
   <si>
     <t>Zone d'intervention</t>
   </si>
@@ -1543,6 +1543,24 @@
     <t>AHO-1033</t>
   </si>
   <si>
+    <t>Bazdouz salah</t>
+  </si>
+  <si>
+    <t>Non installé</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Installé</t>
+  </si>
+  <si>
+    <t>BF06FA3PAG07873</t>
+  </si>
+  <si>
+    <t>BF06FA3PAG9615A</t>
+  </si>
+  <si>
     <t>AHO-1051</t>
   </si>
   <si>
@@ -2189,12 +2207,6 @@
   </si>
   <si>
     <t>Amine chayaoui</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Installé</t>
   </si>
   <si>
     <t>BF06FA3PAGC5AB7</t>
@@ -5332,7 +5344,7 @@
   </sheetPr>
   <dimension ref="A1:AJ653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="false" showRowColHeaders="1" topLeftCell="A630">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1" topLeftCell="A630">
       <selection activeCell="F643" sqref="F643"/>
     </sheetView>
   </sheetViews>
@@ -26584,42 +26596,92 @@
       <c r="F447" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="G447" s="120"/>
+      <c r="G447" s="120" t="s">
+        <v>506</v>
+      </c>
       <c r="H447" s="121"/>
-      <c r="I447" s="113"/>
-      <c r="J447" s="114"/>
+      <c r="I447" s="113" t="s">
+        <v>507</v>
+      </c>
+      <c r="J447" s="114" t="s">
+        <v>507</v>
+      </c>
       <c r="K447" s="115"/>
-      <c r="L447" s="113"/>
-      <c r="M447" s="116"/>
-      <c r="N447" s="116"/>
-      <c r="O447" s="116"/>
+      <c r="L447" s="113" t="s">
+        <v>508</v>
+      </c>
+      <c r="M447" s="116" t="s">
+        <v>509</v>
+      </c>
+      <c r="N447" s="116" t="s">
+        <v>509</v>
+      </c>
+      <c r="O447" s="116" t="s">
+        <v>508</v>
+      </c>
       <c r="P447" s="114"/>
-      <c r="Q447" s="113"/>
-      <c r="R447" s="117"/>
-      <c r="S447" s="116"/>
-      <c r="T447" s="112"/>
+      <c r="Q447" s="113" t="s">
+        <v>509</v>
+      </c>
+      <c r="R447" s="117" t="s">
+        <v>510</v>
+      </c>
+      <c r="S447" s="116" t="s">
+        <v>509</v>
+      </c>
+      <c r="T447" s="112" t="s">
+        <v>511</v>
+      </c>
       <c r="U447" s="114"/>
-      <c r="V447" s="113"/>
-      <c r="W447" s="116"/>
-      <c r="X447" s="116"/>
-      <c r="Y447" s="116"/>
-      <c r="Z447" s="116"/>
-      <c r="AA447" s="116"/>
-      <c r="AB447" s="116"/>
-      <c r="AC447" s="114"/>
-      <c r="AD447" s="118"/>
-      <c r="AE447" s="117"/>
-      <c r="AF447" s="116"/>
-      <c r="AG447" s="116"/>
-      <c r="AH447" s="116"/>
-      <c r="AI447" s="112"/>
+      <c r="V447" s="113" t="s">
+        <v>509</v>
+      </c>
+      <c r="W447" s="116" t="s">
+        <v>509</v>
+      </c>
+      <c r="X447" s="116" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y447" s="116" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z447" s="116" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA447" s="116" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB447" s="116" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC447" s="114" t="s">
+        <v>509</v>
+      </c>
+      <c r="AD447" s="118" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE447" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF447" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG447" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH447" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI447" s="112" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="448" spans="1:36">
       <c r="A448" s="119" t="s">
         <v>498</v>
       </c>
       <c r="B448" s="120" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C448" s="120" t="s">
         <v>98</v>
@@ -26668,7 +26730,7 @@
         <v>498</v>
       </c>
       <c r="B449" s="120" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C449" s="120" t="s">
         <v>98</v>
@@ -26717,7 +26779,7 @@
         <v>498</v>
       </c>
       <c r="B450" s="120" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C450" s="120" t="s">
         <v>37</v>
@@ -26726,7 +26788,7 @@
         <v>38</v>
       </c>
       <c r="E450" s="120" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F450" s="120" t="s">
         <v>78</v>
@@ -26766,7 +26828,7 @@
         <v>498</v>
       </c>
       <c r="B451" s="120" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C451" s="120" t="s">
         <v>37</v>
@@ -26775,7 +26837,7 @@
         <v>38</v>
       </c>
       <c r="E451" s="120" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F451" s="120" t="s">
         <v>78</v>
@@ -26815,7 +26877,7 @@
         <v>498</v>
       </c>
       <c r="B452" s="120" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C452" s="120" t="s">
         <v>37</v>
@@ -26864,7 +26926,7 @@
         <v>498</v>
       </c>
       <c r="B453" s="120" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C453" s="120" t="s">
         <v>37</v>
@@ -26913,7 +26975,7 @@
         <v>498</v>
       </c>
       <c r="B454" s="120" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C454" s="120" t="s">
         <v>37</v>
@@ -26922,7 +26984,7 @@
         <v>38</v>
       </c>
       <c r="E454" s="120" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F454" s="120" t="s">
         <v>78</v>
@@ -26962,7 +27024,7 @@
         <v>498</v>
       </c>
       <c r="B455" s="120" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C455" s="120" t="s">
         <v>37</v>
@@ -27011,7 +27073,7 @@
         <v>498</v>
       </c>
       <c r="B456" s="120" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C456" s="120" t="s">
         <v>37</v>
@@ -27060,7 +27122,7 @@
         <v>498</v>
       </c>
       <c r="B457" s="120" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C457" s="120" t="s">
         <v>114</v>
@@ -27109,7 +27171,7 @@
         <v>498</v>
       </c>
       <c r="B458" s="120" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C458" s="120" t="s">
         <v>91</v>
@@ -27118,7 +27180,7 @@
         <v>38</v>
       </c>
       <c r="E458" s="120" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F458" s="120" t="s">
         <v>40</v>
@@ -27158,7 +27220,7 @@
         <v>498</v>
       </c>
       <c r="B459" s="120" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C459" s="120" t="s">
         <v>37</v>
@@ -27207,7 +27269,7 @@
         <v>498</v>
       </c>
       <c r="B460" s="120" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C460" s="120" t="s">
         <v>37</v>
@@ -27256,7 +27318,7 @@
         <v>498</v>
       </c>
       <c r="B461" s="120" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C461" s="120" t="s">
         <v>37</v>
@@ -27305,7 +27367,7 @@
         <v>498</v>
       </c>
       <c r="B462" s="120" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C462" s="120" t="s">
         <v>114</v>
@@ -27354,7 +27416,7 @@
         <v>498</v>
       </c>
       <c r="B463" s="120" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C463" s="120" t="s">
         <v>37</v>
@@ -27403,7 +27465,7 @@
         <v>498</v>
       </c>
       <c r="B464" s="120" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C464" s="120" t="s">
         <v>37</v>
@@ -27452,7 +27514,7 @@
         <v>498</v>
       </c>
       <c r="B465" s="120" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C465" s="120" t="s">
         <v>37</v>
@@ -27501,7 +27563,7 @@
         <v>498</v>
       </c>
       <c r="B466" s="120" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C466" s="120" t="s">
         <v>37</v>
@@ -27550,7 +27612,7 @@
         <v>498</v>
       </c>
       <c r="B467" s="120" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C467" s="120" t="s">
         <v>37</v>
@@ -27599,7 +27661,7 @@
         <v>498</v>
       </c>
       <c r="B468" s="120" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C468" s="120" t="s">
         <v>98</v>
@@ -27648,7 +27710,7 @@
         <v>498</v>
       </c>
       <c r="B469" s="120" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C469" s="120" t="s">
         <v>37</v>
@@ -27697,7 +27759,7 @@
         <v>498</v>
       </c>
       <c r="B470" s="120" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C470" s="120" t="s">
         <v>37</v>
@@ -27746,7 +27808,7 @@
         <v>498</v>
       </c>
       <c r="B471" s="120" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C471" s="120" t="s">
         <v>37</v>
@@ -27795,7 +27857,7 @@
         <v>498</v>
       </c>
       <c r="B472" s="120" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C472" s="120" t="s">
         <v>98</v>
@@ -27844,7 +27906,7 @@
         <v>498</v>
       </c>
       <c r="B473" s="120" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C473" s="120" t="s">
         <v>91</v>
@@ -27893,7 +27955,7 @@
         <v>498</v>
       </c>
       <c r="B474" s="120" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C474" s="120" t="s">
         <v>114</v>
@@ -27942,7 +28004,7 @@
         <v>498</v>
       </c>
       <c r="B475" s="120" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C475" s="120" t="s">
         <v>37</v>
@@ -27991,7 +28053,7 @@
         <v>498</v>
       </c>
       <c r="B476" s="120" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C476" s="120" t="s">
         <v>37</v>
@@ -28000,7 +28062,7 @@
         <v>38</v>
       </c>
       <c r="E476" s="120" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F476" s="120" t="s">
         <v>40</v>
@@ -28040,7 +28102,7 @@
         <v>498</v>
       </c>
       <c r="B477" s="120" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C477" s="120" t="s">
         <v>98</v>
@@ -28089,7 +28151,7 @@
         <v>498</v>
       </c>
       <c r="B478" s="120" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C478" s="120" t="s">
         <v>114</v>
@@ -28098,7 +28160,7 @@
         <v>38</v>
       </c>
       <c r="E478" s="120" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F478" s="120" t="s">
         <v>40</v>
@@ -28138,7 +28200,7 @@
         <v>498</v>
       </c>
       <c r="B479" s="120" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C479" s="120" t="s">
         <v>91</v>
@@ -28187,7 +28249,7 @@
         <v>498</v>
       </c>
       <c r="B480" s="120" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C480" s="120" t="s">
         <v>91</v>
@@ -28236,7 +28298,7 @@
         <v>498</v>
       </c>
       <c r="B481" s="120" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C481" s="120" t="s">
         <v>91</v>
@@ -28282,10 +28344,10 @@
     </row>
     <row r="482" spans="1:36">
       <c r="A482" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B482" s="120" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C482" s="120" t="s">
         <v>91</v>
@@ -28294,7 +28356,7 @@
         <v>38</v>
       </c>
       <c r="E482" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F482" s="120" t="s">
         <v>45</v>
@@ -28331,10 +28393,10 @@
     </row>
     <row r="483" spans="1:36">
       <c r="A483" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B483" s="120" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C483" s="120" t="s">
         <v>91</v>
@@ -28343,7 +28405,7 @@
         <v>38</v>
       </c>
       <c r="E483" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F483" s="120" t="s">
         <v>45</v>
@@ -28380,10 +28442,10 @@
     </row>
     <row r="484" spans="1:36">
       <c r="A484" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B484" s="120" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C484" s="120" t="s">
         <v>98</v>
@@ -28392,7 +28454,7 @@
         <v>38</v>
       </c>
       <c r="E484" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F484" s="120" t="s">
         <v>45</v>
@@ -28429,10 +28491,10 @@
     </row>
     <row r="485" spans="1:36">
       <c r="A485" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B485" s="120" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C485" s="120" t="s">
         <v>98</v>
@@ -28441,7 +28503,7 @@
         <v>38</v>
       </c>
       <c r="E485" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F485" s="120" t="s">
         <v>45</v>
@@ -28478,10 +28540,10 @@
     </row>
     <row r="486" spans="1:36">
       <c r="A486" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B486" s="120" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C486" s="120" t="s">
         <v>91</v>
@@ -28490,7 +28552,7 @@
         <v>38</v>
       </c>
       <c r="E486" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F486" s="120" t="s">
         <v>45</v>
@@ -28527,10 +28589,10 @@
     </row>
     <row r="487" spans="1:36">
       <c r="A487" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B487" s="120" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C487" s="120" t="s">
         <v>91</v>
@@ -28539,7 +28601,7 @@
         <v>38</v>
       </c>
       <c r="E487" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F487" s="120" t="s">
         <v>45</v>
@@ -28576,10 +28638,10 @@
     </row>
     <row r="488" spans="1:36">
       <c r="A488" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B488" s="120" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C488" s="120" t="e">
         <v>#N/A</v>
@@ -28588,7 +28650,7 @@
         <v>38</v>
       </c>
       <c r="E488" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F488" s="120" t="s">
         <v>45</v>
@@ -28625,10 +28687,10 @@
     </row>
     <row r="489" spans="1:36">
       <c r="A489" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B489" s="120" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C489" s="120" t="s">
         <v>98</v>
@@ -28637,7 +28699,7 @@
         <v>38</v>
       </c>
       <c r="E489" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F489" s="120" t="s">
         <v>45</v>
@@ -28674,10 +28736,10 @@
     </row>
     <row r="490" spans="1:36">
       <c r="A490" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B490" s="120" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C490" s="120" t="s">
         <v>37</v>
@@ -28686,7 +28748,7 @@
         <v>38</v>
       </c>
       <c r="E490" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F490" s="120" t="s">
         <v>45</v>
@@ -28723,10 +28785,10 @@
     </row>
     <row r="491" spans="1:36">
       <c r="A491" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B491" s="120" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C491" s="120" t="s">
         <v>114</v>
@@ -28735,7 +28797,7 @@
         <v>38</v>
       </c>
       <c r="E491" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F491" s="120"/>
       <c r="G491" s="120"/>
@@ -28770,10 +28832,10 @@
     </row>
     <row r="492" spans="1:36">
       <c r="A492" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B492" s="120" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C492" s="120" t="s">
         <v>98</v>
@@ -28782,7 +28844,7 @@
         <v>38</v>
       </c>
       <c r="E492" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F492" s="120"/>
       <c r="G492" s="120"/>
@@ -28817,10 +28879,10 @@
     </row>
     <row r="493" spans="1:36">
       <c r="A493" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B493" s="120" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C493" s="120" t="s">
         <v>98</v>
@@ -28829,7 +28891,7 @@
         <v>38</v>
       </c>
       <c r="E493" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F493" s="120" t="s">
         <v>78</v>
@@ -28866,10 +28928,10 @@
     </row>
     <row r="494" spans="1:36">
       <c r="A494" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B494" s="120" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C494" s="120" t="s">
         <v>98</v>
@@ -28878,7 +28940,7 @@
         <v>103</v>
       </c>
       <c r="E494" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F494" s="120"/>
       <c r="G494" s="120"/>
@@ -28913,10 +28975,10 @@
     </row>
     <row r="495" spans="1:36">
       <c r="A495" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B495" s="120" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C495" s="120" t="s">
         <v>98</v>
@@ -28925,7 +28987,7 @@
         <v>38</v>
       </c>
       <c r="E495" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F495" s="120" t="s">
         <v>45</v>
@@ -28962,10 +29024,10 @@
     </row>
     <row r="496" spans="1:36">
       <c r="A496" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B496" s="120" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C496" s="120" t="s">
         <v>37</v>
@@ -28974,7 +29036,7 @@
         <v>38</v>
       </c>
       <c r="E496" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F496" s="120" t="s">
         <v>78</v>
@@ -29011,10 +29073,10 @@
     </row>
     <row r="497" spans="1:36">
       <c r="A497" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B497" s="120" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C497" s="120" t="s">
         <v>98</v>
@@ -29023,7 +29085,7 @@
         <v>103</v>
       </c>
       <c r="E497" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F497" s="120" t="s">
         <v>45</v>
@@ -29060,10 +29122,10 @@
     </row>
     <row r="498" spans="1:36">
       <c r="A498" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B498" s="120" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C498" s="120" t="s">
         <v>37</v>
@@ -29072,7 +29134,7 @@
         <v>38</v>
       </c>
       <c r="E498" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F498" s="120" t="s">
         <v>45</v>
@@ -29109,10 +29171,10 @@
     </row>
     <row r="499" spans="1:36">
       <c r="A499" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B499" s="120" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C499" s="120" t="s">
         <v>98</v>
@@ -29121,7 +29183,7 @@
         <v>38</v>
       </c>
       <c r="E499" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F499" s="120" t="s">
         <v>45</v>
@@ -29158,10 +29220,10 @@
     </row>
     <row r="500" spans="1:36">
       <c r="A500" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B500" s="120" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C500" s="120" t="s">
         <v>98</v>
@@ -29170,7 +29232,7 @@
         <v>38</v>
       </c>
       <c r="E500" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F500" s="120" t="s">
         <v>45</v>
@@ -29207,10 +29269,10 @@
     </row>
     <row r="501" spans="1:36">
       <c r="A501" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B501" s="120" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C501" s="120" t="s">
         <v>91</v>
@@ -29219,7 +29281,7 @@
         <v>38</v>
       </c>
       <c r="E501" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F501" s="120" t="s">
         <v>45</v>
@@ -29256,10 +29318,10 @@
     </row>
     <row r="502" spans="1:36">
       <c r="A502" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B502" s="120" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C502" s="120" t="s">
         <v>98</v>
@@ -29268,7 +29330,7 @@
         <v>38</v>
       </c>
       <c r="E502" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F502" s="120" t="s">
         <v>45</v>
@@ -29305,10 +29367,10 @@
     </row>
     <row r="503" spans="1:36">
       <c r="A503" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B503" s="120" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C503" s="120" t="s">
         <v>114</v>
@@ -29317,7 +29379,7 @@
         <v>38</v>
       </c>
       <c r="E503" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F503" s="120" t="s">
         <v>45</v>
@@ -29354,10 +29416,10 @@
     </row>
     <row r="504" spans="1:36">
       <c r="A504" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B504" s="120" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C504" s="120" t="s">
         <v>98</v>
@@ -29366,7 +29428,7 @@
         <v>38</v>
       </c>
       <c r="E504" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F504" s="120" t="s">
         <v>45</v>
@@ -29403,10 +29465,10 @@
     </row>
     <row r="505" spans="1:36">
       <c r="A505" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B505" s="120" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C505" s="120" t="s">
         <v>98</v>
@@ -29415,7 +29477,7 @@
         <v>38</v>
       </c>
       <c r="E505" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F505" s="120" t="s">
         <v>45</v>
@@ -29452,10 +29514,10 @@
     </row>
     <row r="506" spans="1:36">
       <c r="A506" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B506" s="120" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C506" s="120" t="s">
         <v>114</v>
@@ -29464,7 +29526,7 @@
         <v>38</v>
       </c>
       <c r="E506" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F506" s="120" t="s">
         <v>78</v>
@@ -29501,10 +29563,10 @@
     </row>
     <row r="507" spans="1:36">
       <c r="A507" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B507" s="120" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C507" s="120" t="s">
         <v>98</v>
@@ -29513,7 +29575,7 @@
         <v>38</v>
       </c>
       <c r="E507" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F507" s="120" t="s">
         <v>78</v>
@@ -29550,10 +29612,10 @@
     </row>
     <row r="508" spans="1:36">
       <c r="A508" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B508" s="120" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C508" s="120" t="s">
         <v>91</v>
@@ -29562,7 +29624,7 @@
         <v>38</v>
       </c>
       <c r="E508" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F508" s="120" t="s">
         <v>45</v>
@@ -29599,10 +29661,10 @@
     </row>
     <row r="509" spans="1:36">
       <c r="A509" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B509" s="120" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C509" s="120" t="s">
         <v>91</v>
@@ -29611,7 +29673,7 @@
         <v>38</v>
       </c>
       <c r="E509" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F509" s="120" t="s">
         <v>78</v>
@@ -29648,10 +29710,10 @@
     </row>
     <row r="510" spans="1:36">
       <c r="A510" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B510" s="120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C510" s="120" t="s">
         <v>91</v>
@@ -29660,7 +29722,7 @@
         <v>38</v>
       </c>
       <c r="E510" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F510" s="120" t="s">
         <v>78</v>
@@ -29697,10 +29759,10 @@
     </row>
     <row r="511" spans="1:36">
       <c r="A511" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B511" s="120" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C511" s="120" t="s">
         <v>91</v>
@@ -29709,7 +29771,7 @@
         <v>38</v>
       </c>
       <c r="E511" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F511" s="120" t="s">
         <v>78</v>
@@ -29746,10 +29808,10 @@
     </row>
     <row r="512" spans="1:36">
       <c r="A512" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B512" s="120" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C512" s="120" t="s">
         <v>91</v>
@@ -29758,7 +29820,7 @@
         <v>38</v>
       </c>
       <c r="E512" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F512" s="120" t="s">
         <v>78</v>
@@ -29795,10 +29857,10 @@
     </row>
     <row r="513" spans="1:36">
       <c r="A513" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B513" s="120" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C513" s="120" t="s">
         <v>114</v>
@@ -29807,7 +29869,7 @@
         <v>38</v>
       </c>
       <c r="E513" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F513" s="120" t="s">
         <v>45</v>
@@ -29844,10 +29906,10 @@
     </row>
     <row r="514" spans="1:36">
       <c r="A514" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B514" s="120" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C514" s="120" t="s">
         <v>91</v>
@@ -29856,7 +29918,7 @@
         <v>38</v>
       </c>
       <c r="E514" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F514" s="120" t="s">
         <v>78</v>
@@ -29893,10 +29955,10 @@
     </row>
     <row r="515" spans="1:36">
       <c r="A515" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B515" s="120" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C515" s="120" t="s">
         <v>114</v>
@@ -29905,7 +29967,7 @@
         <v>103</v>
       </c>
       <c r="E515" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F515" s="120" t="s">
         <v>78</v>
@@ -29942,10 +30004,10 @@
     </row>
     <row r="516" spans="1:36">
       <c r="A516" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B516" s="120" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C516" s="120" t="s">
         <v>98</v>
@@ -29954,7 +30016,7 @@
         <v>38</v>
       </c>
       <c r="E516" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F516" s="120" t="s">
         <v>45</v>
@@ -29991,10 +30053,10 @@
     </row>
     <row r="517" spans="1:36">
       <c r="A517" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B517" s="120" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C517" s="120" t="s">
         <v>91</v>
@@ -30003,7 +30065,7 @@
         <v>38</v>
       </c>
       <c r="E517" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F517" s="120" t="s">
         <v>78</v>
@@ -30040,10 +30102,10 @@
     </row>
     <row r="518" spans="1:36">
       <c r="A518" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B518" s="120" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C518" s="120" t="s">
         <v>98</v>
@@ -30052,7 +30114,7 @@
         <v>38</v>
       </c>
       <c r="E518" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F518" s="120" t="s">
         <v>78</v>
@@ -30089,10 +30151,10 @@
     </row>
     <row r="519" spans="1:36">
       <c r="A519" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B519" s="120" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C519" s="120" t="s">
         <v>91</v>
@@ -30101,7 +30163,7 @@
         <v>38</v>
       </c>
       <c r="E519" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F519" s="120" t="s">
         <v>78</v>
@@ -30138,10 +30200,10 @@
     </row>
     <row r="520" spans="1:36">
       <c r="A520" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B520" s="120" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C520" s="120" t="s">
         <v>98</v>
@@ -30150,7 +30212,7 @@
         <v>38</v>
       </c>
       <c r="E520" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F520" s="120" t="s">
         <v>45</v>
@@ -30187,10 +30249,10 @@
     </row>
     <row r="521" spans="1:36">
       <c r="A521" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B521" s="120" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C521" s="120" t="s">
         <v>98</v>
@@ -30199,7 +30261,7 @@
         <v>38</v>
       </c>
       <c r="E521" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F521" s="120" t="s">
         <v>78</v>
@@ -30236,10 +30298,10 @@
     </row>
     <row r="522" spans="1:36">
       <c r="A522" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B522" s="120" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C522" s="120" t="s">
         <v>37</v>
@@ -30248,7 +30310,7 @@
         <v>38</v>
       </c>
       <c r="E522" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F522" s="120" t="s">
         <v>45</v>
@@ -30285,10 +30347,10 @@
     </row>
     <row r="523" spans="1:36">
       <c r="A523" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B523" s="120" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C523" s="120" t="s">
         <v>37</v>
@@ -30297,7 +30359,7 @@
         <v>38</v>
       </c>
       <c r="E523" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F523" s="120" t="s">
         <v>78</v>
@@ -30334,10 +30396,10 @@
     </row>
     <row r="524" spans="1:36">
       <c r="A524" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B524" s="120" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C524" s="120" t="s">
         <v>98</v>
@@ -30346,7 +30408,7 @@
         <v>38</v>
       </c>
       <c r="E524" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F524" s="120" t="s">
         <v>78</v>
@@ -30383,10 +30445,10 @@
     </row>
     <row r="525" spans="1:36">
       <c r="A525" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B525" s="120" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C525" s="120" t="s">
         <v>98</v>
@@ -30395,7 +30457,7 @@
         <v>38</v>
       </c>
       <c r="E525" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F525" s="120" t="s">
         <v>78</v>
@@ -30432,10 +30494,10 @@
     </row>
     <row r="526" spans="1:36">
       <c r="A526" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B526" s="120" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C526" s="120" t="s">
         <v>114</v>
@@ -30444,7 +30506,7 @@
         <v>38</v>
       </c>
       <c r="E526" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F526" s="120" t="s">
         <v>45</v>
@@ -30481,10 +30543,10 @@
     </row>
     <row r="527" spans="1:36">
       <c r="A527" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B527" s="120" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C527" s="120" t="s">
         <v>114</v>
@@ -30493,7 +30555,7 @@
         <v>38</v>
       </c>
       <c r="E527" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F527" s="120" t="s">
         <v>78</v>
@@ -30530,10 +30592,10 @@
     </row>
     <row r="528" spans="1:36">
       <c r="A528" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B528" s="120" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C528" s="120" t="s">
         <v>114</v>
@@ -30542,7 +30604,7 @@
         <v>38</v>
       </c>
       <c r="E528" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F528" s="120" t="s">
         <v>45</v>
@@ -30579,10 +30641,10 @@
     </row>
     <row r="529" spans="1:36">
       <c r="A529" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B529" s="120" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C529" s="120" t="s">
         <v>114</v>
@@ -30591,7 +30653,7 @@
         <v>38</v>
       </c>
       <c r="E529" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F529" s="120" t="s">
         <v>45</v>
@@ -30628,10 +30690,10 @@
     </row>
     <row r="530" spans="1:36">
       <c r="A530" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B530" s="120" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C530" s="120" t="s">
         <v>98</v>
@@ -30640,7 +30702,7 @@
         <v>38</v>
       </c>
       <c r="E530" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F530" s="120" t="s">
         <v>45</v>
@@ -30677,10 +30739,10 @@
     </row>
     <row r="531" spans="1:36">
       <c r="A531" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B531" s="120" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C531" s="120" t="s">
         <v>98</v>
@@ -30689,7 +30751,7 @@
         <v>38</v>
       </c>
       <c r="E531" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F531" s="120" t="s">
         <v>45</v>
@@ -30726,10 +30788,10 @@
     </row>
     <row r="532" spans="1:36">
       <c r="A532" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B532" s="120" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C532" s="120" t="s">
         <v>98</v>
@@ -30738,7 +30800,7 @@
         <v>38</v>
       </c>
       <c r="E532" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F532" s="120" t="s">
         <v>78</v>
@@ -30775,10 +30837,10 @@
     </row>
     <row r="533" spans="1:36">
       <c r="A533" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B533" s="120" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C533" s="120" t="s">
         <v>114</v>
@@ -30787,7 +30849,7 @@
         <v>38</v>
       </c>
       <c r="E533" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F533" s="120" t="s">
         <v>45</v>
@@ -30824,10 +30886,10 @@
     </row>
     <row r="534" spans="1:36">
       <c r="A534" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B534" s="120" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C534" s="120" t="s">
         <v>98</v>
@@ -30836,7 +30898,7 @@
         <v>38</v>
       </c>
       <c r="E534" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F534" s="120" t="s">
         <v>45</v>
@@ -30873,10 +30935,10 @@
     </row>
     <row r="535" spans="1:36">
       <c r="A535" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B535" s="120" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C535" s="120" t="s">
         <v>98</v>
@@ -30885,7 +30947,7 @@
         <v>38</v>
       </c>
       <c r="E535" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F535" s="120" t="s">
         <v>45</v>
@@ -30922,10 +30984,10 @@
     </row>
     <row r="536" spans="1:36">
       <c r="A536" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B536" s="120" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C536" s="120" t="s">
         <v>114</v>
@@ -30934,7 +30996,7 @@
         <v>38</v>
       </c>
       <c r="E536" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F536" s="120" t="s">
         <v>45</v>
@@ -30971,10 +31033,10 @@
     </row>
     <row r="537" spans="1:36">
       <c r="A537" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B537" s="120" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C537" s="120" t="s">
         <v>114</v>
@@ -30983,7 +31045,7 @@
         <v>38</v>
       </c>
       <c r="E537" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F537" s="120" t="s">
         <v>78</v>
@@ -31020,10 +31082,10 @@
     </row>
     <row r="538" spans="1:36">
       <c r="A538" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B538" s="120" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C538" s="120" t="s">
         <v>114</v>
@@ -31032,7 +31094,7 @@
         <v>38</v>
       </c>
       <c r="E538" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F538" s="120" t="s">
         <v>78</v>
@@ -31069,10 +31131,10 @@
     </row>
     <row r="539" spans="1:36">
       <c r="A539" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B539" s="120" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C539" s="120" t="s">
         <v>98</v>
@@ -31081,7 +31143,7 @@
         <v>38</v>
       </c>
       <c r="E539" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F539" s="120" t="s">
         <v>45</v>
@@ -31118,10 +31180,10 @@
     </row>
     <row r="540" spans="1:36">
       <c r="A540" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B540" s="120" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C540" s="120" t="s">
         <v>114</v>
@@ -31130,7 +31192,7 @@
         <v>38</v>
       </c>
       <c r="E540" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F540" s="120" t="s">
         <v>45</v>
@@ -31167,10 +31229,10 @@
     </row>
     <row r="541" spans="1:36">
       <c r="A541" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B541" s="120" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C541" s="120" t="s">
         <v>98</v>
@@ -31179,7 +31241,7 @@
         <v>38</v>
       </c>
       <c r="E541" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F541" s="120" t="s">
         <v>45</v>
@@ -31216,10 +31278,10 @@
     </row>
     <row r="542" spans="1:36">
       <c r="A542" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B542" s="120" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C542" s="120" t="s">
         <v>114</v>
@@ -31228,7 +31290,7 @@
         <v>38</v>
       </c>
       <c r="E542" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F542" s="120" t="s">
         <v>78</v>
@@ -31265,10 +31327,10 @@
     </row>
     <row r="543" spans="1:36">
       <c r="A543" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B543" s="120" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C543" s="120" t="s">
         <v>114</v>
@@ -31277,7 +31339,7 @@
         <v>38</v>
       </c>
       <c r="E543" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F543" s="120" t="s">
         <v>45</v>
@@ -31314,10 +31376,10 @@
     </row>
     <row r="544" spans="1:36">
       <c r="A544" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B544" s="120" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C544" s="120" t="s">
         <v>98</v>
@@ -31326,7 +31388,7 @@
         <v>38</v>
       </c>
       <c r="E544" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F544" s="120" t="s">
         <v>45</v>
@@ -31363,10 +31425,10 @@
     </row>
     <row r="545" spans="1:36">
       <c r="A545" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B545" s="120" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C545" s="120" t="s">
         <v>114</v>
@@ -31375,7 +31437,7 @@
         <v>38</v>
       </c>
       <c r="E545" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F545" s="120" t="s">
         <v>45</v>
@@ -31412,10 +31474,10 @@
     </row>
     <row r="546" spans="1:36">
       <c r="A546" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B546" s="120" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C546" s="120" t="s">
         <v>114</v>
@@ -31424,7 +31486,7 @@
         <v>38</v>
       </c>
       <c r="E546" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F546" s="120" t="s">
         <v>45</v>
@@ -31461,10 +31523,10 @@
     </row>
     <row r="547" spans="1:36">
       <c r="A547" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B547" s="120" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C547" s="120" t="s">
         <v>114</v>
@@ -31473,7 +31535,7 @@
         <v>38</v>
       </c>
       <c r="E547" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F547" s="120" t="s">
         <v>78</v>
@@ -31510,10 +31572,10 @@
     </row>
     <row r="548" spans="1:36">
       <c r="A548" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B548" s="120" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C548" s="120" t="s">
         <v>98</v>
@@ -31522,7 +31584,7 @@
         <v>38</v>
       </c>
       <c r="E548" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F548" s="120" t="s">
         <v>78</v>
@@ -31559,10 +31621,10 @@
     </row>
     <row r="549" spans="1:36">
       <c r="A549" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B549" s="120" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C549" s="120" t="s">
         <v>98</v>
@@ -31571,7 +31633,7 @@
         <v>38</v>
       </c>
       <c r="E549" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F549" s="120" t="s">
         <v>78</v>
@@ -31608,10 +31670,10 @@
     </row>
     <row r="550" spans="1:36">
       <c r="A550" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B550" s="120" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C550" s="120" t="s">
         <v>114</v>
@@ -31620,7 +31682,7 @@
         <v>38</v>
       </c>
       <c r="E550" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F550" s="120" t="s">
         <v>78</v>
@@ -31657,10 +31719,10 @@
     </row>
     <row r="551" spans="1:36">
       <c r="A551" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B551" s="120" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C551" s="120" t="s">
         <v>114</v>
@@ -31669,7 +31731,7 @@
         <v>103</v>
       </c>
       <c r="E551" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F551" s="120" t="s">
         <v>78</v>
@@ -31706,10 +31768,10 @@
     </row>
     <row r="552" spans="1:36">
       <c r="A552" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B552" s="120" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C552" s="120" t="s">
         <v>114</v>
@@ -31718,7 +31780,7 @@
         <v>103</v>
       </c>
       <c r="E552" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F552" s="120" t="s">
         <v>78</v>
@@ -31755,10 +31817,10 @@
     </row>
     <row r="553" spans="1:36">
       <c r="A553" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B553" s="120" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C553" s="120" t="s">
         <v>91</v>
@@ -31767,7 +31829,7 @@
         <v>103</v>
       </c>
       <c r="E553" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F553" s="120" t="s">
         <v>78</v>
@@ -31804,10 +31866,10 @@
     </row>
     <row r="554" spans="1:36">
       <c r="A554" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B554" s="120" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C554" s="120" t="s">
         <v>37</v>
@@ -31816,7 +31878,7 @@
         <v>103</v>
       </c>
       <c r="E554" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F554" s="120" t="s">
         <v>78</v>
@@ -31853,10 +31915,10 @@
     </row>
     <row r="555" spans="1:36">
       <c r="A555" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B555" s="120" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C555" s="120" t="s">
         <v>114</v>
@@ -31865,7 +31927,7 @@
         <v>103</v>
       </c>
       <c r="E555" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F555" s="120" t="s">
         <v>78</v>
@@ -31902,10 +31964,10 @@
     </row>
     <row r="556" spans="1:36">
       <c r="A556" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B556" s="120" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C556" s="120" t="s">
         <v>114</v>
@@ -31914,7 +31976,7 @@
         <v>103</v>
       </c>
       <c r="E556" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F556" s="120" t="s">
         <v>78</v>
@@ -31951,10 +32013,10 @@
     </row>
     <row r="557" spans="1:36">
       <c r="A557" s="119" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B557" s="120" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C557" s="120" t="s">
         <v>37</v>
@@ -31963,7 +32025,7 @@
         <v>38</v>
       </c>
       <c r="E557" s="120" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F557" s="120" t="s">
         <v>78</v>
@@ -32000,10 +32062,10 @@
     </row>
     <row r="558" spans="1:36">
       <c r="A558" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B558" s="120" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C558" s="120" t="s">
         <v>37</v>
@@ -32049,10 +32111,10 @@
     </row>
     <row r="559" spans="1:36">
       <c r="A559" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B559" s="120" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C559" s="120" t="s">
         <v>37</v>
@@ -32098,10 +32160,10 @@
     </row>
     <row r="560" spans="1:36">
       <c r="A560" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B560" s="120" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C560" s="120" t="s">
         <v>37</v>
@@ -32147,10 +32209,10 @@
     </row>
     <row r="561" spans="1:36">
       <c r="A561" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B561" s="120" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C561" s="120" t="s">
         <v>37</v>
@@ -32196,10 +32258,10 @@
     </row>
     <row r="562" spans="1:36">
       <c r="A562" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B562" s="120" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C562" s="120" t="s">
         <v>98</v>
@@ -32245,10 +32307,10 @@
     </row>
     <row r="563" spans="1:36">
       <c r="A563" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B563" s="120" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C563" s="120" t="s">
         <v>37</v>
@@ -32294,10 +32356,10 @@
     </row>
     <row r="564" spans="1:36">
       <c r="A564" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B564" s="120" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C564" s="120" t="s">
         <v>98</v>
@@ -32343,10 +32405,10 @@
     </row>
     <row r="565" spans="1:36">
       <c r="A565" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B565" s="120" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C565" s="120" t="s">
         <v>37</v>
@@ -32392,10 +32454,10 @@
     </row>
     <row r="566" spans="1:36">
       <c r="A566" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B566" s="120" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C566" s="120" t="s">
         <v>114</v>
@@ -32404,7 +32466,7 @@
         <v>38</v>
       </c>
       <c r="E566" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F566" s="120" t="s">
         <v>45</v>
@@ -32441,10 +32503,10 @@
     </row>
     <row r="567" spans="1:36">
       <c r="A567" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B567" s="120" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C567" s="120" t="s">
         <v>114</v>
@@ -32490,10 +32552,10 @@
     </row>
     <row r="568" spans="1:36">
       <c r="A568" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B568" s="120" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C568" s="120" t="s">
         <v>114</v>
@@ -32539,10 +32601,10 @@
     </row>
     <row r="569" spans="1:36">
       <c r="A569" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B569" s="120" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C569" s="120" t="s">
         <v>37</v>
@@ -32588,10 +32650,10 @@
     </row>
     <row r="570" spans="1:36">
       <c r="A570" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B570" s="120" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C570" s="120" t="s">
         <v>37</v>
@@ -32637,10 +32699,10 @@
     </row>
     <row r="571" spans="1:36">
       <c r="A571" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B571" s="120" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C571" s="120" t="s">
         <v>91</v>
@@ -32686,10 +32748,10 @@
     </row>
     <row r="572" spans="1:36">
       <c r="A572" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B572" s="120" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C572" s="120" t="s">
         <v>37</v>
@@ -32735,10 +32797,10 @@
     </row>
     <row r="573" spans="1:36">
       <c r="A573" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B573" s="120" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C573" s="120" t="s">
         <v>98</v>
@@ -32784,10 +32846,10 @@
     </row>
     <row r="574" spans="1:36">
       <c r="A574" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B574" s="120" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C574" s="120" t="s">
         <v>98</v>
@@ -32833,10 +32895,10 @@
     </row>
     <row r="575" spans="1:36">
       <c r="A575" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B575" s="120" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C575" s="120" t="s">
         <v>114</v>
@@ -32845,7 +32907,7 @@
         <v>38</v>
       </c>
       <c r="E575" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F575" s="120" t="s">
         <v>45</v>
@@ -32882,10 +32944,10 @@
     </row>
     <row r="576" spans="1:36">
       <c r="A576" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B576" s="120" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C576" s="120" t="s">
         <v>91</v>
@@ -32931,10 +32993,10 @@
     </row>
     <row r="577" spans="1:36">
       <c r="A577" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B577" s="120" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C577" s="120" t="s">
         <v>37</v>
@@ -32980,10 +33042,10 @@
     </row>
     <row r="578" spans="1:36">
       <c r="A578" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B578" s="120" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C578" s="120" t="s">
         <v>37</v>
@@ -33029,10 +33091,10 @@
     </row>
     <row r="579" spans="1:36">
       <c r="A579" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B579" s="120" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C579" s="120" t="s">
         <v>37</v>
@@ -33078,10 +33140,10 @@
     </row>
     <row r="580" spans="1:36">
       <c r="A580" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B580" s="120" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C580" s="120" t="s">
         <v>37</v>
@@ -33090,7 +33152,7 @@
         <v>38</v>
       </c>
       <c r="E580" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F580" s="120" t="s">
         <v>40</v>
@@ -33127,10 +33189,10 @@
     </row>
     <row r="581" spans="1:36">
       <c r="A581" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B581" s="120" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C581" s="120" t="s">
         <v>37</v>
@@ -33139,7 +33201,7 @@
         <v>38</v>
       </c>
       <c r="E581" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F581" s="120" t="s">
         <v>45</v>
@@ -33176,10 +33238,10 @@
     </row>
     <row r="582" spans="1:36">
       <c r="A582" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B582" s="120" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C582" s="120" t="s">
         <v>37</v>
@@ -33188,7 +33250,7 @@
         <v>38</v>
       </c>
       <c r="E582" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F582" s="120" t="s">
         <v>45</v>
@@ -33225,10 +33287,10 @@
     </row>
     <row r="583" spans="1:36">
       <c r="A583" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B583" s="120" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C583" s="120" t="s">
         <v>37</v>
@@ -33274,10 +33336,10 @@
     </row>
     <row r="584" spans="1:36">
       <c r="A584" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B584" s="120" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C584" s="120" t="s">
         <v>91</v>
@@ -33286,7 +33348,7 @@
         <v>38</v>
       </c>
       <c r="E584" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F584" s="120" t="s">
         <v>45</v>
@@ -33323,10 +33385,10 @@
     </row>
     <row r="585" spans="1:36">
       <c r="A585" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B585" s="120" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C585" s="120" t="s">
         <v>37</v>
@@ -33335,7 +33397,7 @@
         <v>38</v>
       </c>
       <c r="E585" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F585" s="120" t="s">
         <v>45</v>
@@ -33372,10 +33434,10 @@
     </row>
     <row r="586" spans="1:36">
       <c r="A586" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B586" s="120" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C586" s="120" t="s">
         <v>98</v>
@@ -33421,10 +33483,10 @@
     </row>
     <row r="587" spans="1:36">
       <c r="A587" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B587" s="120" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C587" s="120" t="s">
         <v>91</v>
@@ -33470,10 +33532,10 @@
     </row>
     <row r="588" spans="1:36">
       <c r="A588" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B588" s="120" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C588" s="120" t="s">
         <v>37</v>
@@ -33482,7 +33544,7 @@
         <v>38</v>
       </c>
       <c r="E588" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F588" s="120" t="s">
         <v>45</v>
@@ -33519,10 +33581,10 @@
     </row>
     <row r="589" spans="1:36">
       <c r="A589" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B589" s="120" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C589" s="120" t="s">
         <v>37</v>
@@ -33568,10 +33630,10 @@
     </row>
     <row r="590" spans="1:36">
       <c r="A590" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B590" s="120" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C590" s="120" t="s">
         <v>98</v>
@@ -33580,7 +33642,7 @@
         <v>38</v>
       </c>
       <c r="E590" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F590" s="120" t="s">
         <v>45</v>
@@ -33617,10 +33679,10 @@
     </row>
     <row r="591" spans="1:36">
       <c r="A591" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B591" s="120" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C591" s="120" t="s">
         <v>98</v>
@@ -33629,7 +33691,7 @@
         <v>38</v>
       </c>
       <c r="E591" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F591" s="120" t="s">
         <v>45</v>
@@ -33666,10 +33728,10 @@
     </row>
     <row r="592" spans="1:36">
       <c r="A592" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B592" s="120" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C592" s="120" t="s">
         <v>114</v>
@@ -33678,7 +33740,7 @@
         <v>38</v>
       </c>
       <c r="E592" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F592" s="120" t="s">
         <v>45</v>
@@ -33715,10 +33777,10 @@
     </row>
     <row r="593" spans="1:36">
       <c r="A593" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B593" s="120" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C593" s="120" t="s">
         <v>114</v>
@@ -33727,7 +33789,7 @@
         <v>38</v>
       </c>
       <c r="E593" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F593" s="120" t="s">
         <v>45</v>
@@ -33764,10 +33826,10 @@
     </row>
     <row r="594" spans="1:36">
       <c r="A594" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B594" s="120" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="C594" s="120" t="s">
         <v>114</v>
@@ -33776,7 +33838,7 @@
         <v>38</v>
       </c>
       <c r="E594" s="120" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="F594" s="120" t="s">
         <v>45</v>
@@ -33813,10 +33875,10 @@
     </row>
     <row r="595" spans="1:36">
       <c r="A595" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B595" s="120" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C595" s="120" t="s">
         <v>37</v>
@@ -33862,10 +33924,10 @@
     </row>
     <row r="596" spans="1:36">
       <c r="A596" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B596" s="120" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C596" s="120" t="s">
         <v>37</v>
@@ -33874,7 +33936,7 @@
         <v>38</v>
       </c>
       <c r="E596" s="120" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F596" s="120" t="s">
         <v>40</v>
@@ -33911,10 +33973,10 @@
     </row>
     <row r="597" spans="1:36">
       <c r="A597" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B597" s="120" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C597" s="120" t="s">
         <v>37</v>
@@ -33960,10 +34022,10 @@
     </row>
     <row r="598" spans="1:36">
       <c r="A598" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B598" s="120" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C598" s="120" t="s">
         <v>37</v>
@@ -33972,7 +34034,7 @@
         <v>103</v>
       </c>
       <c r="E598" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F598" s="120" t="s">
         <v>40</v>
@@ -34009,10 +34071,10 @@
     </row>
     <row r="599" spans="1:36">
       <c r="A599" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B599" s="120" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C599" s="120" t="s">
         <v>37</v>
@@ -34021,7 +34083,7 @@
         <v>38</v>
       </c>
       <c r="E599" s="120" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F599" s="120" t="s">
         <v>40</v>
@@ -34058,10 +34120,10 @@
     </row>
     <row r="600" spans="1:36">
       <c r="A600" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B600" s="120" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C600" s="120" t="s">
         <v>114</v>
@@ -34070,7 +34132,7 @@
         <v>103</v>
       </c>
       <c r="E600" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F600" s="120" t="s">
         <v>40</v>
@@ -34107,10 +34169,10 @@
     </row>
     <row r="601" spans="1:36">
       <c r="A601" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B601" s="120" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C601" s="120" t="s">
         <v>37</v>
@@ -34119,7 +34181,7 @@
         <v>38</v>
       </c>
       <c r="E601" s="120" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="F601" s="120" t="s">
         <v>40</v>
@@ -34156,10 +34218,10 @@
     </row>
     <row r="602" spans="1:36">
       <c r="A602" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B602" s="120" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C602" s="120" t="s">
         <v>37</v>
@@ -34168,10 +34230,10 @@
         <v>38</v>
       </c>
       <c r="E602" s="120" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="F602" s="120" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="G602" s="120"/>
       <c r="H602" s="121"/>
@@ -34205,10 +34267,10 @@
     </row>
     <row r="603" spans="1:36">
       <c r="A603" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B603" s="120" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C603" s="120" t="s">
         <v>37</v>
@@ -34254,10 +34316,10 @@
     </row>
     <row r="604" spans="1:36">
       <c r="A604" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B604" s="120" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C604" s="120" t="s">
         <v>98</v>
@@ -34266,7 +34328,7 @@
         <v>38</v>
       </c>
       <c r="E604" s="120" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F604" s="120" t="s">
         <v>40</v>
@@ -34303,10 +34365,10 @@
     </row>
     <row r="605" spans="1:36">
       <c r="A605" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B605" s="120" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C605" s="120" t="s">
         <v>37</v>
@@ -34315,10 +34377,10 @@
         <v>103</v>
       </c>
       <c r="E605" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F605" s="120" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="G605" s="120"/>
       <c r="H605" s="121"/>
@@ -34352,10 +34414,10 @@
     </row>
     <row r="606" spans="1:36">
       <c r="A606" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B606" s="120" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C606" s="120" t="s">
         <v>98</v>
@@ -34364,7 +34426,7 @@
         <v>38</v>
       </c>
       <c r="E606" s="120" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F606" s="120" t="s">
         <v>40</v>
@@ -34401,10 +34463,10 @@
     </row>
     <row r="607" spans="1:36">
       <c r="A607" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B607" s="120" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C607" s="120" t="s">
         <v>98</v>
@@ -34413,7 +34475,7 @@
         <v>38</v>
       </c>
       <c r="E607" s="120" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F607" s="120" t="s">
         <v>40</v>
@@ -34450,10 +34512,10 @@
     </row>
     <row r="608" spans="1:36">
       <c r="A608" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B608" s="120" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C608" s="120" t="s">
         <v>37</v>
@@ -34499,10 +34561,10 @@
     </row>
     <row r="609" spans="1:36">
       <c r="A609" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B609" s="120" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C609" s="120" t="s">
         <v>114</v>
@@ -34511,7 +34573,7 @@
         <v>103</v>
       </c>
       <c r="E609" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F609" s="120" t="s">
         <v>40</v>
@@ -34548,10 +34610,10 @@
     </row>
     <row r="610" spans="1:36">
       <c r="A610" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B610" s="120" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C610" s="120" t="s">
         <v>98</v>
@@ -34560,7 +34622,7 @@
         <v>103</v>
       </c>
       <c r="E610" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F610" s="120" t="s">
         <v>40</v>
@@ -34597,10 +34659,10 @@
     </row>
     <row r="611" spans="1:36">
       <c r="A611" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B611" s="120" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C611" s="120" t="s">
         <v>98</v>
@@ -34609,7 +34671,7 @@
         <v>38</v>
       </c>
       <c r="E611" s="120" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F611" s="120" t="s">
         <v>40</v>
@@ -34646,10 +34708,10 @@
     </row>
     <row r="612" spans="1:36">
       <c r="A612" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B612" s="120" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C612" s="120" t="s">
         <v>114</v>
@@ -34658,7 +34720,7 @@
         <v>103</v>
       </c>
       <c r="E612" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F612" s="120" t="s">
         <v>40</v>
@@ -34695,10 +34757,10 @@
     </row>
     <row r="613" spans="1:36">
       <c r="A613" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B613" s="120" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C613" s="120" t="s">
         <v>98</v>
@@ -34744,10 +34806,10 @@
     </row>
     <row r="614" spans="1:36">
       <c r="A614" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B614" s="120" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C614" s="120" t="s">
         <v>98</v>
@@ -34793,10 +34855,10 @@
     </row>
     <row r="615" spans="1:36">
       <c r="A615" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B615" s="120" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C615" s="120" t="s">
         <v>98</v>
@@ -34805,7 +34867,7 @@
         <v>38</v>
       </c>
       <c r="E615" s="120" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="F615" s="120" t="s">
         <v>40</v>
@@ -34842,10 +34904,10 @@
     </row>
     <row r="616" spans="1:36">
       <c r="A616" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B616" s="120" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C616" s="120" t="s">
         <v>37</v>
@@ -34854,7 +34916,7 @@
         <v>103</v>
       </c>
       <c r="E616" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F616" s="120" t="s">
         <v>40</v>
@@ -34891,10 +34953,10 @@
     </row>
     <row r="617" spans="1:36">
       <c r="A617" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B617" s="120" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C617" s="120" t="s">
         <v>91</v>
@@ -34903,7 +34965,7 @@
         <v>103</v>
       </c>
       <c r="E617" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F617" s="120" t="s">
         <v>40</v>
@@ -34940,10 +35002,10 @@
     </row>
     <row r="618" spans="1:36">
       <c r="A618" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B618" s="120" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C618" s="120" t="s">
         <v>37</v>
@@ -34952,7 +35014,7 @@
         <v>103</v>
       </c>
       <c r="E618" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F618" s="120" t="s">
         <v>40</v>
@@ -34989,10 +35051,10 @@
     </row>
     <row r="619" spans="1:36">
       <c r="A619" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B619" s="120" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C619" s="120" t="s">
         <v>91</v>
@@ -35001,7 +35063,7 @@
         <v>103</v>
       </c>
       <c r="E619" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F619" s="120" t="s">
         <v>40</v>
@@ -35038,10 +35100,10 @@
     </row>
     <row r="620" spans="1:36">
       <c r="A620" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B620" s="120" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C620" s="120" t="s">
         <v>37</v>
@@ -35050,7 +35112,7 @@
         <v>103</v>
       </c>
       <c r="E620" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F620" s="120" t="s">
         <v>40</v>
@@ -35087,10 +35149,10 @@
     </row>
     <row r="621" spans="1:36">
       <c r="A621" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B621" s="120" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C621" s="120" t="s">
         <v>114</v>
@@ -35099,7 +35161,7 @@
         <v>103</v>
       </c>
       <c r="E621" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F621" s="120" t="s">
         <v>40</v>
@@ -35136,10 +35198,10 @@
     </row>
     <row r="622" spans="1:36">
       <c r="A622" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B622" s="120" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C622" s="120" t="s">
         <v>37</v>
@@ -35185,10 +35247,10 @@
     </row>
     <row r="623" spans="1:36">
       <c r="A623" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B623" s="120" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C623" s="120" t="s">
         <v>91</v>
@@ -35197,7 +35259,7 @@
         <v>103</v>
       </c>
       <c r="E623" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F623" s="120" t="s">
         <v>40</v>
@@ -35234,10 +35296,10 @@
     </row>
     <row r="624" spans="1:36">
       <c r="A624" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B624" s="120" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C624" s="120" t="s">
         <v>37</v>
@@ -35246,7 +35308,7 @@
         <v>103</v>
       </c>
       <c r="E624" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F624" s="120" t="s">
         <v>40</v>
@@ -35283,10 +35345,10 @@
     </row>
     <row r="625" spans="1:36">
       <c r="A625" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B625" s="120" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C625" s="120" t="s">
         <v>37</v>
@@ -35295,7 +35357,7 @@
         <v>103</v>
       </c>
       <c r="E625" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F625" s="120" t="s">
         <v>40</v>
@@ -35332,10 +35394,10 @@
     </row>
     <row r="626" spans="1:36">
       <c r="A626" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B626" s="120" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C626" s="120" t="s">
         <v>114</v>
@@ -35344,7 +35406,7 @@
         <v>103</v>
       </c>
       <c r="E626" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F626" s="120" t="s">
         <v>45</v>
@@ -35381,10 +35443,10 @@
     </row>
     <row r="627" spans="1:36">
       <c r="A627" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B627" s="120" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C627" s="120" t="s">
         <v>37</v>
@@ -35393,7 +35455,7 @@
         <v>103</v>
       </c>
       <c r="E627" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F627" s="120" t="s">
         <v>40</v>
@@ -35430,10 +35492,10 @@
     </row>
     <row r="628" spans="1:36">
       <c r="A628" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B628" s="120" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C628" s="120" t="s">
         <v>98</v>
@@ -35479,10 +35541,10 @@
     </row>
     <row r="629" spans="1:36">
       <c r="A629" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B629" s="120" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="C629" s="120" t="s">
         <v>114</v>
@@ -35491,7 +35553,7 @@
         <v>103</v>
       </c>
       <c r="E629" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F629" s="120" t="s">
         <v>40</v>
@@ -35528,10 +35590,10 @@
     </row>
     <row r="630" spans="1:36">
       <c r="A630" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B630" s="120" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C630" s="120" t="s">
         <v>37</v>
@@ -35540,7 +35602,7 @@
         <v>103</v>
       </c>
       <c r="E630" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F630" s="120" t="s">
         <v>40</v>
@@ -35577,10 +35639,10 @@
     </row>
     <row r="631" spans="1:36">
       <c r="A631" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B631" s="120" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C631" s="120" t="s">
         <v>37</v>
@@ -35626,10 +35688,10 @@
     </row>
     <row r="632" spans="1:36">
       <c r="A632" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B632" s="120" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C632" s="120" t="s">
         <v>37</v>
@@ -35638,10 +35700,10 @@
         <v>103</v>
       </c>
       <c r="E632" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F632" s="120" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="G632" s="120"/>
       <c r="H632" s="121"/>
@@ -35675,10 +35737,10 @@
     </row>
     <row r="633" spans="1:36">
       <c r="A633" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B633" s="120" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C633" s="120" t="s">
         <v>114</v>
@@ -35687,7 +35749,7 @@
         <v>103</v>
       </c>
       <c r="E633" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F633" s="120" t="s">
         <v>40</v>
@@ -35724,10 +35786,10 @@
     </row>
     <row r="634" spans="1:36">
       <c r="A634" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B634" s="120" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C634" s="120" t="s">
         <v>98</v>
@@ -35736,7 +35798,7 @@
         <v>103</v>
       </c>
       <c r="E634" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F634" s="120" t="s">
         <v>40</v>
@@ -35773,10 +35835,10 @@
     </row>
     <row r="635" spans="1:36">
       <c r="A635" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B635" s="120" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C635" s="120" t="s">
         <v>37</v>
@@ -35785,7 +35847,7 @@
         <v>103</v>
       </c>
       <c r="E635" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F635" s="120" t="s">
         <v>40</v>
@@ -35822,10 +35884,10 @@
     </row>
     <row r="636" spans="1:36">
       <c r="A636" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B636" s="120" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C636" s="120" t="s">
         <v>91</v>
@@ -35834,7 +35896,7 @@
         <v>103</v>
       </c>
       <c r="E636" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F636" s="120" t="s">
         <v>40</v>
@@ -35871,10 +35933,10 @@
     </row>
     <row r="637" spans="1:36">
       <c r="A637" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B637" s="120" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C637" s="120" t="s">
         <v>98</v>
@@ -35883,7 +35945,7 @@
         <v>103</v>
       </c>
       <c r="E637" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F637" s="120" t="s">
         <v>40</v>
@@ -35920,10 +35982,10 @@
     </row>
     <row r="638" spans="1:36">
       <c r="A638" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B638" s="120" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C638" s="120" t="s">
         <v>98</v>
@@ -35932,7 +35994,7 @@
         <v>103</v>
       </c>
       <c r="E638" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F638" s="120" t="s">
         <v>40</v>
@@ -35969,10 +36031,10 @@
     </row>
     <row r="639" spans="1:36">
       <c r="A639" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B639" s="120" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C639" s="120" t="s">
         <v>91</v>
@@ -36018,10 +36080,10 @@
     </row>
     <row r="640" spans="1:36">
       <c r="A640" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B640" s="120" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C640" s="120" t="s">
         <v>98</v>
@@ -36030,7 +36092,7 @@
         <v>103</v>
       </c>
       <c r="E640" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F640" s="120" t="s">
         <v>40</v>
@@ -36067,10 +36129,10 @@
     </row>
     <row r="641" spans="1:36">
       <c r="A641" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B641" s="120" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C641" s="120" t="s">
         <v>98</v>
@@ -36116,10 +36178,10 @@
     </row>
     <row r="642" spans="1:36">
       <c r="A642" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B642" s="120" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="C642" s="120" t="s">
         <v>91</v>
@@ -36128,7 +36190,7 @@
         <v>103</v>
       </c>
       <c r="E642" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F642" s="120" t="s">
         <v>40</v>
@@ -36165,10 +36227,10 @@
     </row>
     <row r="643" spans="1:36">
       <c r="A643" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B643" s="120" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C643" s="120" t="s">
         <v>91</v>
@@ -36214,10 +36276,10 @@
     </row>
     <row r="644" spans="1:36">
       <c r="A644" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B644" s="120" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="C644" s="120" t="s">
         <v>91</v>
@@ -36226,7 +36288,7 @@
         <v>103</v>
       </c>
       <c r="E644" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F644" s="120" t="s">
         <v>40</v>
@@ -36263,10 +36325,10 @@
     </row>
     <row r="645" spans="1:36">
       <c r="A645" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B645" s="120" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C645" s="120" t="s">
         <v>98</v>
@@ -36312,10 +36374,10 @@
     </row>
     <row r="646" spans="1:36">
       <c r="A646" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B646" s="120" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C646" s="120" t="s">
         <v>98</v>
@@ -36324,7 +36386,7 @@
         <v>103</v>
       </c>
       <c r="E646" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F646" s="120" t="s">
         <v>40</v>
@@ -36361,10 +36423,10 @@
     </row>
     <row r="647" spans="1:36">
       <c r="A647" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B647" s="120" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C647" s="120" t="s">
         <v>98</v>
@@ -36410,10 +36472,10 @@
     </row>
     <row r="648" spans="1:36">
       <c r="A648" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B648" s="120" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C648" s="120" t="s">
         <v>114</v>
@@ -36422,7 +36484,7 @@
         <v>103</v>
       </c>
       <c r="E648" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F648" s="120" t="s">
         <v>40</v>
@@ -36459,10 +36521,10 @@
     </row>
     <row r="649" spans="1:36">
       <c r="A649" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B649" s="120" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C649" s="120" t="s">
         <v>114</v>
@@ -36471,7 +36533,7 @@
         <v>103</v>
       </c>
       <c r="E649" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F649" s="120" t="s">
         <v>40</v>
@@ -36508,10 +36570,10 @@
     </row>
     <row r="650" spans="1:36">
       <c r="A650" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B650" s="120" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C650" s="120" t="s">
         <v>114</v>
@@ -36520,7 +36582,7 @@
         <v>103</v>
       </c>
       <c r="E650" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F650" s="120" t="s">
         <v>40</v>
@@ -36557,10 +36619,10 @@
     </row>
     <row r="651" spans="1:36">
       <c r="A651" s="119" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B651" s="120" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C651" s="120" t="s">
         <v>37</v>
@@ -36569,7 +36631,7 @@
         <v>103</v>
       </c>
       <c r="E651" s="120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F651" s="120" t="s">
         <v>40</v>
@@ -36606,10 +36668,10 @@
     </row>
     <row r="652" spans="1:36">
       <c r="A652" s="128" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B652" s="129" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C652" s="129" t="s">
         <v>98</v>
@@ -36655,69 +36717,69 @@
     </row>
     <row r="653" spans="1:36">
       <c r="A653" s="9" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B653" s="9" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G653" s="9" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="I653" s="10" t="s">
-        <v>722</v>
+        <v>508</v>
       </c>
       <c r="J653" s="10" t="s">
-        <v>722</v>
+        <v>508</v>
       </c>
       <c r="K653" s="10"/>
       <c r="L653" s="10" t="s">
-        <v>722</v>
+        <v>508</v>
       </c>
       <c r="M653" s="10" t="s">
-        <v>722</v>
+        <v>508</v>
       </c>
       <c r="N653" s="10" t="s">
-        <v>722</v>
+        <v>508</v>
       </c>
       <c r="O653" s="10" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="Q653" s="10" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="R653" s="10" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="S653" s="10" t="s">
-        <v>722</v>
+        <v>508</v>
       </c>
       <c r="T653" s="10"/>
       <c r="V653" s="10" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="W653" s="10" t="s">
-        <v>722</v>
+        <v>508</v>
       </c>
       <c r="X653" s="10" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="Y653" s="10" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="Z653" s="10" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="AA653" s="10" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="AB653" s="10" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="AC653" s="10" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="AD653" s="10" t="s">
-        <v>723</v>
+        <v>509</v>
       </c>
       <c r="AE653" s="10" t="s">
         <v>40</v>
@@ -36844,7 +36906,7 @@
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="50" zoomScaleNormal="50" showGridLines="false" showRowColHeaders="1" topLeftCell="A5">
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="50" zoomScaleNormal="50" showGridLines="true" showRowColHeaders="1" topLeftCell="A5">
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
@@ -36875,22 +36937,22 @@
     </row>
     <row r="2" spans="1:22" customHeight="1" ht="27">
       <c r="A2" s="16" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:22" customHeight="1" ht="24">
@@ -36919,7 +36981,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -36930,7 +36992,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="22" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B8" s="17" t="str">
         <f>+IF($F$1=1,"Greenfield",IF($F$1=2,"Esthétique",""))</f>
@@ -36940,7 +37002,7 @@
     <row r="9" spans="1:22" customHeight="1" ht="15"/>
     <row r="10" spans="1:22" customHeight="1" ht="24.75">
       <c r="B10" s="145" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C10" s="146"/>
       <c r="D10" s="146"/>
@@ -36949,7 +37011,7 @@
       <c r="G10" s="146"/>
       <c r="H10" s="146"/>
       <c r="I10" s="145" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="J10" s="146"/>
       <c r="K10" s="146"/>
@@ -36959,70 +37021,70 @@
     </row>
     <row r="11" spans="1:22" customHeight="1" ht="46.5" s="11" customFormat="1">
       <c r="A11" s="46" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="O11" s="63" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="Q11" s="64" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="R11" s="64" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="S11" s="64" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="T11" s="64" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="U11" s="64" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="V11" s="65" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12" spans="1:22" customHeight="1" ht="21.75">
@@ -37294,7 +37356,7 @@
     </row>
     <row r="15" spans="1:22" customHeight="1" ht="21.75">
       <c r="A15" s="37" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B15" s="23">
         <f>IF($B$8="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A15),_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A15,'Données-Globales'!$D:$D,'Traitement TDB'!$B$8))</f>
@@ -37383,7 +37445,7 @@
     </row>
     <row r="16" spans="1:22" customHeight="1" ht="21.75">
       <c r="A16" s="37" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B16" s="23">
         <f>IF($B$8="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A16),_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A16,'Données-Globales'!$D:$D,'Traitement TDB'!$B$8))</f>
@@ -37472,7 +37534,7 @@
     </row>
     <row r="17" spans="1:22" customHeight="1" ht="21.75">
       <c r="A17" s="37" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B17" s="23">
         <f>IF($B$8="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A17),_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A17,'Données-Globales'!$D:$D,'Traitement TDB'!$B$8))</f>
@@ -37561,7 +37623,7 @@
     </row>
     <row r="18" spans="1:22" customHeight="1" ht="21.75">
       <c r="A18" s="37" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B18" s="23">
         <f>IF($B$8="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A18),_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A18,'Données-Globales'!$D:$D,'Traitement TDB'!$B$8))</f>
@@ -37651,7 +37713,7 @@
     <row r="20" spans="1:22" customHeight="1" ht="15"/>
     <row r="21" spans="1:22" customHeight="1" ht="19">
       <c r="B21" s="145" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C21" s="146"/>
       <c r="D21" s="146"/>
@@ -37660,7 +37722,7 @@
       <c r="G21" s="146"/>
       <c r="H21" s="146"/>
       <c r="I21" s="145" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="J21" s="146"/>
       <c r="K21" s="146"/>
@@ -37668,7 +37730,7 @@
       <c r="M21" s="146"/>
       <c r="N21" s="147"/>
       <c r="O21" s="148" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="P21" s="149"/>
       <c r="Q21" s="149"/>
@@ -37680,75 +37742,75 @@
     </row>
     <row r="22" spans="1:22" customHeight="1" ht="87.5">
       <c r="A22" s="67" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G22" s="69" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="H22" s="70" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="K22" s="69" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="L22" s="69" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="M22" s="69" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="N22" s="70" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="O22" s="66" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="P22" s="66" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="Q22" s="66" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="R22" s="66" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="S22" s="66" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="T22" s="66" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="U22" s="66" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="V22" s="66" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:22" customHeight="1" ht="18.5">
       <c r="A23" s="39" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B23" s="40">
         <f>+SUBTOTAL(9,B12:B18)</f>
@@ -37908,7 +37970,7 @@
   </sheetPr>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" showGridLines="false" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -37935,16 +37997,16 @@
   <sheetData>
     <row r="2" spans="1:17">
       <c r="A2" s="16" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -37955,7 +38017,7 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="15.5">
       <c r="A5" s="22" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B5" s="94" t="s">
         <v>38</v>
@@ -37968,7 +38030,7 @@
     <row r="7" spans="1:17" customHeight="1" ht="15"/>
     <row r="8" spans="1:17" customHeight="1" ht="19">
       <c r="B8" s="151" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C8" s="152"/>
       <c r="D8" s="152"/>
@@ -37977,7 +38039,7 @@
       <c r="G8" s="152"/>
       <c r="H8" s="152"/>
       <c r="I8" s="151" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="J8" s="152"/>
       <c r="K8" s="152"/>
@@ -37987,46 +38049,46 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="29.5" s="11" customFormat="1">
       <c r="A9" s="73" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="H9" s="74" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="N9" s="75" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="O9" s="15"/>
     </row>
@@ -38204,7 +38266,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="78" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B13" s="80">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A13),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A13,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38261,7 +38323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="78" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B14" s="80">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A14),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A14,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38318,7 +38380,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="78" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B15" s="80">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A15),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A15,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38375,7 +38437,7 @@
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="15">
       <c r="A16" s="78" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B16" s="80">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A16),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A16,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38432,7 +38494,7 @@
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="19">
       <c r="A17" s="79" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B17" s="93">
         <f>SUM(B10:B16)</f>
@@ -38490,31 +38552,31 @@
     <row r="20" spans="1:17" customHeight="1" ht="15"/>
     <row r="21" spans="1:17" customHeight="1" ht="62.5" s="11" customFormat="1">
       <c r="A21" s="85" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E21" s="87" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="G21" s="87" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H21" s="87" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="I21" s="88" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -38637,7 +38699,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="51" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B25" s="54">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A25,'Données-Globales'!$I:$I,$A$2),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A25,'Données-Globales'!$I:$I,$A$2,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38674,7 +38736,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="51" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B26" s="54">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A26,'Données-Globales'!$I:$I,$A$2),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A26,'Données-Globales'!$I:$I,$A$2,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38711,7 +38773,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="51" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B27" s="54">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A27,'Données-Globales'!$I:$I,$A$2),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A27,'Données-Globales'!$I:$I,$A$2,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38748,7 +38810,7 @@
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="15">
       <c r="A28" s="51" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B28" s="54">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A28,'Données-Globales'!$I:$I,$A$2),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A28,'Données-Globales'!$I:$I,$A$2,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38785,7 +38847,7 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="19">
       <c r="A29" s="52" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B29" s="89">
         <f>SUM(B22:B28)</f>
@@ -38863,7 +38925,7 @@
     <row r="1" spans="1:18" customHeight="1" ht="29.5">
       <c r="B1" s="34"/>
       <c r="C1" s="139" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="D1" s="139"/>
       <c r="E1" s="139"/>
@@ -38909,7 +38971,7 @@
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="140" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="J3" s="140"/>
       <c r="K3" s="140"/>
@@ -38933,7 +38995,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="140" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="J4" s="140"/>
       <c r="K4" s="140"/>
@@ -38957,7 +39019,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="141" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="J5" s="141"/>
       <c r="K5" s="141"/>
@@ -38981,7 +39043,7 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="140" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="J6" s="140"/>
       <c r="K6" s="140"/>
@@ -39697,16 +39759,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C1" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="D1" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -39714,7 +39776,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
@@ -39729,7 +39791,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
@@ -39767,7 +39829,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
@@ -39780,7 +39842,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -39793,10 +39855,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>6</v>
@@ -39808,7 +39870,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
@@ -39821,10 +39883,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
@@ -39836,10 +39898,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -39851,10 +39913,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -39866,10 +39928,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>11</v>
@@ -39881,10 +39943,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>12</v>
@@ -39896,10 +39958,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
@@ -39911,10 +39973,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>14</v>
@@ -39926,7 +39988,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -39939,10 +40001,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>16</v>
@@ -39954,10 +40016,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>17</v>
@@ -39969,10 +40031,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>18</v>
@@ -39984,10 +40046,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>19</v>
@@ -39999,7 +40061,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -40012,10 +40074,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>21</v>
@@ -40027,10 +40089,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>22</v>
@@ -40042,10 +40104,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>23</v>
@@ -40057,10 +40119,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>24</v>
@@ -40072,10 +40134,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>25</v>
@@ -40087,10 +40149,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>26</v>
@@ -40102,10 +40164,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>27</v>
@@ -40117,10 +40179,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -40132,10 +40194,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>29</v>
@@ -40147,10 +40209,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>30</v>
@@ -40162,10 +40224,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>31</v>
@@ -40177,10 +40239,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>32</v>
@@ -40192,10 +40254,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>33</v>
@@ -40207,10 +40269,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>34</v>
@@ -40290,7 +40352,7 @@
   </sheetPr>
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="false" showRowColHeaders="1" topLeftCell="A6">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A6">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -40308,7 +40370,7 @@
   <sheetData>
     <row r="2" spans="1:14" customHeight="1" ht="31.25">
       <c r="B2" s="164" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C2" s="164"/>
       <c r="D2" s="164"/>
@@ -40318,7 +40380,7 @@
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="28.75">
       <c r="B3" s="163" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C3" s="163"/>
       <c r="D3" s="163"/>
@@ -40328,7 +40390,7 @@
     </row>
     <row r="4" spans="1:14" customHeight="1" ht="24">
       <c r="B4" s="165" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C4" s="165"/>
       <c r="D4" s="165"/>
@@ -40338,425 +40400,425 @@
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="20.4">
       <c r="B6" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="22.75">
       <c r="B7" s="1" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="6" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="1" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="1" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="1" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="1" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="1" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="1" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="1" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="B17" s="1" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="B18" s="1" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="B19" s="1" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="B20" s="1" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="B21" s="1" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="1" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="B23" s="1" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="B24" s="1" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="1" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="1" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="B27" s="1" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="D27" s="170" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="E27" s="171"/>
       <c r="F27" s="170" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="G27" s="171"/>
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="1" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="D28" s="170" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="E28" s="172"/>
       <c r="F28" s="172"/>
@@ -40764,10 +40826,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="B29" s="1" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -40776,13 +40838,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="B30" s="1" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="D30" s="170" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="E30" s="172"/>
       <c r="F30" s="172"/>
@@ -40790,13 +40852,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="1" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="D31" s="170" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="E31" s="172"/>
       <c r="F31" s="172"/>
@@ -40805,11 +40867,11 @@
     <row r="32" spans="1:14" customHeight="1" ht="15"/>
     <row r="33" spans="1:14" customHeight="1" ht="14.5">
       <c r="B33" s="166" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="C33" s="167"/>
       <c r="D33" s="166" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="E33" s="173"/>
       <c r="F33" s="173"/>
@@ -40865,7 +40927,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="B40" s="154" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="C40" s="155"/>
       <c r="D40" s="155"/>
@@ -40939,19 +41001,19 @@
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="23.5">
       <c r="B50" s="3" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="B51" s="137" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="C51" s="137" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="D51" s="138"/>
       <c r="E51" s="137" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="N51" s="8"/>
     </row>
@@ -41027,95 +41089,95 @@
     </row>
     <row r="67" spans="1:14">
       <c r="B67" s="137" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C67" s="137" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="E67" s="137" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="B83" s="137" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="C83" s="137" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="E83" s="137" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="99" spans="1:14" customHeight="1" ht="23.5">
       <c r="B99" s="3" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="B100" s="138" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C100" s="138" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="E100" s="138" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="B116" s="138" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="C116" s="138" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="E116" s="138" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="B132" s="138" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="C132" s="138" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="E132" s="138" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="B148" s="138" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C148" s="138" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="E148" s="138" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="B164" s="138" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="C164" s="138" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="E164" s="138" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="179" spans="1:14">
       <c r="B179" s="138" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="C179" s="138" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="E179" s="138" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/excel/template.xlsx
+++ b/storage/app/excel/template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1010">
   <si>
     <t>Zone d'intervention</t>
   </si>
@@ -1546,667 +1546,673 @@
     <t>Bazdouz salah</t>
   </si>
   <si>
-    <t>Non installé</t>
+    <t>Problème</t>
+  </si>
+  <si>
+    <t>Not Appliqué</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>BF06FA3PAG07873</t>
+  </si>
+  <si>
+    <t>BF06FA3PAG9615A</t>
+  </si>
+  <si>
+    <t>AHO-1051</t>
+  </si>
+  <si>
+    <t>AHO-1056</t>
+  </si>
+  <si>
+    <t>BRF-1002</t>
+  </si>
+  <si>
+    <t>IP/WDM</t>
+  </si>
+  <si>
+    <t>BRF-1003</t>
+  </si>
+  <si>
+    <t>BRF-1004</t>
+  </si>
+  <si>
+    <t>BRF-1006</t>
+  </si>
+  <si>
+    <t>BRF-1008</t>
+  </si>
+  <si>
+    <t>BRF-P002</t>
+  </si>
+  <si>
+    <t>BRK-1011</t>
+  </si>
+  <si>
+    <t>DRI-1005</t>
+  </si>
+  <si>
+    <t>ELA-1001</t>
+  </si>
+  <si>
+    <t>IP/SDH</t>
+  </si>
+  <si>
+    <t>FIG-1002</t>
+  </si>
+  <si>
+    <t>FIG-1004</t>
+  </si>
+  <si>
+    <t>FIG-1005</t>
+  </si>
+  <si>
+    <t>GRC-1004</t>
+  </si>
+  <si>
+    <t>GRC-1005</t>
+  </si>
+  <si>
+    <t>GRC-1020</t>
+  </si>
+  <si>
+    <t>JRD-1001</t>
+  </si>
+  <si>
+    <t>JRD-1005</t>
+  </si>
+  <si>
+    <t>KET-1002</t>
+  </si>
+  <si>
+    <t>MSN-1001</t>
+  </si>
+  <si>
+    <t>NAD-1014</t>
+  </si>
+  <si>
+    <t>NAD-1018</t>
+  </si>
+  <si>
+    <t>NAD-1020</t>
+  </si>
+  <si>
+    <t>NAD-1031</t>
+  </si>
+  <si>
+    <t>NAD-1045</t>
+  </si>
+  <si>
+    <t>NAI-1003</t>
+  </si>
+  <si>
+    <t>OUJ-1006</t>
+  </si>
+  <si>
+    <t>OUJ-1018</t>
+  </si>
+  <si>
+    <t>OUJ-1019</t>
+  </si>
+  <si>
+    <t>OUJ-1020</t>
+  </si>
+  <si>
+    <t>TRG-1001</t>
+  </si>
+  <si>
+    <t>TRG-1008</t>
+  </si>
+  <si>
+    <t>ZAK-1007</t>
+  </si>
+  <si>
+    <t>rabat</t>
+  </si>
+  <si>
+    <t>SKI-1011</t>
+  </si>
+  <si>
+    <t>INDOOR</t>
+  </si>
+  <si>
+    <t>MAA-1001</t>
+  </si>
+  <si>
+    <t>MAA-1005</t>
+  </si>
+  <si>
+    <t>GNZ-1002</t>
+  </si>
+  <si>
+    <t>BMA-1006</t>
+  </si>
+  <si>
+    <t>RAB-1041</t>
+  </si>
+  <si>
+    <t>RAB-1301</t>
+  </si>
+  <si>
+    <t>RAB-1065</t>
+  </si>
+  <si>
+    <t>SKI-1004</t>
+  </si>
+  <si>
+    <t>SKI-1015</t>
+  </si>
+  <si>
+    <t>OUTDOOR</t>
+  </si>
+  <si>
+    <t>SKI-1014</t>
+  </si>
+  <si>
+    <t>RAB-1008</t>
+  </si>
+  <si>
+    <t>RAB-1415</t>
+  </si>
+  <si>
+    <t>RAB-1086</t>
+  </si>
+  <si>
+    <t>RAB-1014</t>
+  </si>
+  <si>
+    <t>RAB-1053</t>
+  </si>
+  <si>
+    <t>KEN-1025</t>
+  </si>
+  <si>
+    <t>SEA-1005</t>
+  </si>
+  <si>
+    <t>SEA-1006</t>
+  </si>
+  <si>
+    <t>SEA-1008</t>
+  </si>
+  <si>
+    <t>SEA-1010</t>
+  </si>
+  <si>
+    <t>OUE-1008</t>
+  </si>
+  <si>
+    <t>OUE-1028</t>
+  </si>
+  <si>
+    <t>OUE-1010</t>
+  </si>
+  <si>
+    <t>OUE-1044</t>
+  </si>
+  <si>
+    <t>OUE-1046</t>
+  </si>
+  <si>
+    <t>OUE-1006</t>
+  </si>
+  <si>
+    <t>OUE-1021</t>
+  </si>
+  <si>
+    <t>OUE-1020</t>
+  </si>
+  <si>
+    <t>SEA-1020</t>
+  </si>
+  <si>
+    <t>SEA-1021</t>
+  </si>
+  <si>
+    <t>SSK-1010</t>
+  </si>
+  <si>
+    <t>SSK-1011</t>
+  </si>
+  <si>
+    <t>SSK-1021</t>
+  </si>
+  <si>
+    <t>SSK-1008</t>
+  </si>
+  <si>
+    <t>OUE-1043</t>
+  </si>
+  <si>
+    <t>OUE-1042</t>
+  </si>
+  <si>
+    <t>OUE-1047</t>
+  </si>
+  <si>
+    <t>SSK-1018</t>
+  </si>
+  <si>
+    <t>SEA-1009</t>
+  </si>
+  <si>
+    <t>DGU-1003</t>
+  </si>
+  <si>
+    <t>DGU-1013</t>
+  </si>
+  <si>
+    <t>DGU-1021</t>
+  </si>
+  <si>
+    <t>DGU-1020</t>
+  </si>
+  <si>
+    <t>GNZ-1001</t>
+  </si>
+  <si>
+    <t>GNZ-1003</t>
+  </si>
+  <si>
+    <t>KHE-1014</t>
+  </si>
+  <si>
+    <t>KHE-1012</t>
+  </si>
+  <si>
+    <t>KHE-1011</t>
+  </si>
+  <si>
+    <t>KHE-1013</t>
+  </si>
+  <si>
+    <t>KHE-1028</t>
+  </si>
+  <si>
+    <t>KHE-1009</t>
+  </si>
+  <si>
+    <t>MDA-1001</t>
+  </si>
+  <si>
+    <t>MDA-1002</t>
+  </si>
+  <si>
+    <t>MDA-1003</t>
+  </si>
+  <si>
+    <t>KEN-1053</t>
+  </si>
+  <si>
+    <t>KEN-1059</t>
+  </si>
+  <si>
+    <t>RMM-1009</t>
+  </si>
+  <si>
+    <t>RMM-1001</t>
+  </si>
+  <si>
+    <t>RMM-1002</t>
+  </si>
+  <si>
+    <t>RMM-1010</t>
+  </si>
+  <si>
+    <t>RMM-1007</t>
+  </si>
+  <si>
+    <t>RMM-1003</t>
+  </si>
+  <si>
+    <t>SBT-1006</t>
+  </si>
+  <si>
+    <t>RAB-1091</t>
+  </si>
+  <si>
+    <t>RAB-1296</t>
+  </si>
+  <si>
+    <t>RAB-1297</t>
+  </si>
+  <si>
+    <t>RAB-1502</t>
+  </si>
+  <si>
+    <t>RAB-1299</t>
+  </si>
+  <si>
+    <t>RAB-1708</t>
+  </si>
+  <si>
+    <t>RAB-1710</t>
+  </si>
+  <si>
+    <t>RAB-1505</t>
+  </si>
+  <si>
+    <t>RAB-1022</t>
+  </si>
+  <si>
+    <t>RAB-1049</t>
+  </si>
+  <si>
+    <t>RAB-1050</t>
+  </si>
+  <si>
+    <t>RAB-1295</t>
+  </si>
+  <si>
+    <t>Tanger</t>
+  </si>
+  <si>
+    <t>AHO-1026</t>
+  </si>
+  <si>
+    <t>BBR-1001</t>
+  </si>
+  <si>
+    <t>BBR-1014</t>
+  </si>
+  <si>
+    <t>BNH-1004</t>
+  </si>
+  <si>
+    <t>BRI-1008</t>
+  </si>
+  <si>
+    <t>CHF-1005</t>
+  </si>
+  <si>
+    <t>CHF-1006</t>
+  </si>
+  <si>
+    <t>CHF-1008</t>
+  </si>
+  <si>
+    <t>CHF-1012</t>
+  </si>
+  <si>
+    <t>Fibré FON</t>
+  </si>
+  <si>
+    <t>CHF-1013</t>
+  </si>
+  <si>
+    <t>CHF-1020</t>
+  </si>
+  <si>
+    <t>ODL-1001</t>
+  </si>
+  <si>
+    <t>ODL-1002</t>
+  </si>
+  <si>
+    <t>ODL-1004</t>
+  </si>
+  <si>
+    <t>ODL-1007</t>
+  </si>
+  <si>
+    <t>ODL-1008</t>
+  </si>
+  <si>
+    <t>ODL-1015</t>
+  </si>
+  <si>
+    <t>ODL-1016</t>
+  </si>
+  <si>
+    <t>TET-1016</t>
+  </si>
+  <si>
+    <t>TET-1018</t>
+  </si>
+  <si>
+    <t>TET-1023</t>
+  </si>
+  <si>
+    <t>TET-1026</t>
+  </si>
+  <si>
+    <t>TET-1027</t>
+  </si>
+  <si>
+    <t>TET-1037</t>
+  </si>
+  <si>
+    <t>TET-1042</t>
+  </si>
+  <si>
+    <t>TET-1048</t>
+  </si>
+  <si>
+    <t>TET-1065</t>
+  </si>
+  <si>
+    <t>TET-1074</t>
+  </si>
+  <si>
+    <t>TET-1089</t>
+  </si>
+  <si>
+    <t>TET-1098</t>
+  </si>
+  <si>
+    <t>TET-1109</t>
+  </si>
+  <si>
+    <t>TET-1121</t>
+  </si>
+  <si>
+    <t>TET-1126</t>
+  </si>
+  <si>
+    <t>TET-1136</t>
+  </si>
+  <si>
+    <t>TET-1137</t>
+  </si>
+  <si>
+    <t>TET-1186</t>
+  </si>
+  <si>
+    <t>TET-1191</t>
+  </si>
+  <si>
+    <t>ASI-1004</t>
+  </si>
+  <si>
+    <t>ASI-1006</t>
+  </si>
+  <si>
+    <t>Metro IP</t>
+  </si>
+  <si>
+    <t>ASI-1007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASI-1026 </t>
+  </si>
+  <si>
+    <t>FON</t>
+  </si>
+  <si>
+    <t>LAR-1011</t>
+  </si>
+  <si>
+    <t>LAR-1046</t>
+  </si>
+  <si>
+    <t>MYB-1001</t>
+  </si>
+  <si>
+    <t>CWDM +Métro IP</t>
+  </si>
+  <si>
+    <t>TAN-1010</t>
+  </si>
+  <si>
+    <t>Métro ( Ex WDM)</t>
+  </si>
+  <si>
+    <t>Nok</t>
+  </si>
+  <si>
+    <t>TAN-1019</t>
+  </si>
+  <si>
+    <t>TAN-1038</t>
+  </si>
+  <si>
+    <t>TAN-1050</t>
+  </si>
+  <si>
+    <t>TAN-1051</t>
+  </si>
+  <si>
+    <t>TAN-1068</t>
+  </si>
+  <si>
+    <t>TAN-1124</t>
+  </si>
+  <si>
+    <t>TAN-1128</t>
+  </si>
+  <si>
+    <t>TAN-1161</t>
+  </si>
+  <si>
+    <t>TAN-1230</t>
+  </si>
+  <si>
+    <t>TAN-1323</t>
+  </si>
+  <si>
+    <t>TAN-1360</t>
+  </si>
+  <si>
+    <t>TAN-1396</t>
+  </si>
+  <si>
+    <t>TGS-1002</t>
+  </si>
+  <si>
+    <t>Metro IP ( CWDM installé)</t>
+  </si>
+  <si>
+    <t>TET-1080</t>
+  </si>
+  <si>
+    <t>TET-1052</t>
+  </si>
+  <si>
+    <t>TET-1170</t>
+  </si>
+  <si>
+    <t>CHF-1033</t>
+  </si>
+  <si>
+    <t>TET-1091</t>
+  </si>
+  <si>
+    <t>TET-1280</t>
+  </si>
+  <si>
+    <t>TET-1019</t>
+  </si>
+  <si>
+    <t>TET-1038</t>
+  </si>
+  <si>
+    <t>TET-1084</t>
+  </si>
+  <si>
+    <t>TET-1092</t>
+  </si>
+  <si>
+    <t>TET-1103</t>
+  </si>
+  <si>
+    <t>TET-1149</t>
+  </si>
+  <si>
+    <t>TET-1160</t>
+  </si>
+  <si>
+    <t>TET-1203</t>
+  </si>
+  <si>
+    <t>TAN-1142</t>
+  </si>
+  <si>
+    <t>TAN-1149</t>
+  </si>
+  <si>
+    <t>TAN-1170</t>
+  </si>
+  <si>
+    <t>TAN-1176</t>
+  </si>
+  <si>
+    <t>TAN-1202</t>
+  </si>
+  <si>
+    <t>TAN-1268</t>
+  </si>
+  <si>
+    <t>TAN-1300</t>
+  </si>
+  <si>
+    <t>TAN-1325</t>
+  </si>
+  <si>
+    <t>TAN-1326</t>
+  </si>
+  <si>
+    <t>TET-1172</t>
+  </si>
+  <si>
+    <t>TET-1183</t>
+  </si>
+  <si>
+    <t>TET-1212</t>
+  </si>
+  <si>
+    <t>TET-1214</t>
+  </si>
+  <si>
+    <t>TET-1227</t>
+  </si>
+  <si>
+    <t>TET-1232</t>
+  </si>
+  <si>
+    <t>TET-1241</t>
+  </si>
+  <si>
+    <t>TET-1246</t>
+  </si>
+  <si>
+    <t>TET-1249</t>
+  </si>
+  <si>
+    <t>marrakech</t>
+  </si>
+  <si>
+    <t>MNB-1011</t>
+  </si>
+  <si>
+    <t>Amine chayaoui</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Installé</t>
-  </si>
-  <si>
-    <t>BF06FA3PAG07873</t>
-  </si>
-  <si>
-    <t>BF06FA3PAG9615A</t>
-  </si>
-  <si>
-    <t>AHO-1051</t>
-  </si>
-  <si>
-    <t>AHO-1056</t>
-  </si>
-  <si>
-    <t>BRF-1002</t>
-  </si>
-  <si>
-    <t>IP/WDM</t>
-  </si>
-  <si>
-    <t>BRF-1003</t>
-  </si>
-  <si>
-    <t>BRF-1004</t>
-  </si>
-  <si>
-    <t>BRF-1006</t>
-  </si>
-  <si>
-    <t>BRF-1008</t>
-  </si>
-  <si>
-    <t>BRF-P002</t>
-  </si>
-  <si>
-    <t>BRK-1011</t>
-  </si>
-  <si>
-    <t>DRI-1005</t>
-  </si>
-  <si>
-    <t>ELA-1001</t>
-  </si>
-  <si>
-    <t>IP/SDH</t>
-  </si>
-  <si>
-    <t>FIG-1002</t>
-  </si>
-  <si>
-    <t>FIG-1004</t>
-  </si>
-  <si>
-    <t>FIG-1005</t>
-  </si>
-  <si>
-    <t>GRC-1004</t>
-  </si>
-  <si>
-    <t>GRC-1005</t>
-  </si>
-  <si>
-    <t>GRC-1020</t>
-  </si>
-  <si>
-    <t>JRD-1001</t>
-  </si>
-  <si>
-    <t>JRD-1005</t>
-  </si>
-  <si>
-    <t>KET-1002</t>
-  </si>
-  <si>
-    <t>MSN-1001</t>
-  </si>
-  <si>
-    <t>NAD-1014</t>
-  </si>
-  <si>
-    <t>NAD-1018</t>
-  </si>
-  <si>
-    <t>NAD-1020</t>
-  </si>
-  <si>
-    <t>NAD-1031</t>
-  </si>
-  <si>
-    <t>NAD-1045</t>
-  </si>
-  <si>
-    <t>NAI-1003</t>
-  </si>
-  <si>
-    <t>OUJ-1006</t>
-  </si>
-  <si>
-    <t>OUJ-1018</t>
-  </si>
-  <si>
-    <t>OUJ-1019</t>
-  </si>
-  <si>
-    <t>OUJ-1020</t>
-  </si>
-  <si>
-    <t>TRG-1001</t>
-  </si>
-  <si>
-    <t>TRG-1008</t>
-  </si>
-  <si>
-    <t>ZAK-1007</t>
-  </si>
-  <si>
-    <t>rabat</t>
-  </si>
-  <si>
-    <t>SKI-1011</t>
-  </si>
-  <si>
-    <t>INDOOR</t>
-  </si>
-  <si>
-    <t>MAA-1001</t>
-  </si>
-  <si>
-    <t>MAA-1005</t>
-  </si>
-  <si>
-    <t>GNZ-1002</t>
-  </si>
-  <si>
-    <t>BMA-1006</t>
-  </si>
-  <si>
-    <t>RAB-1041</t>
-  </si>
-  <si>
-    <t>RAB-1301</t>
-  </si>
-  <si>
-    <t>RAB-1065</t>
-  </si>
-  <si>
-    <t>SKI-1004</t>
-  </si>
-  <si>
-    <t>SKI-1015</t>
-  </si>
-  <si>
-    <t>OUTDOOR</t>
-  </si>
-  <si>
-    <t>SKI-1014</t>
-  </si>
-  <si>
-    <t>RAB-1008</t>
-  </si>
-  <si>
-    <t>RAB-1415</t>
-  </si>
-  <si>
-    <t>RAB-1086</t>
-  </si>
-  <si>
-    <t>RAB-1014</t>
-  </si>
-  <si>
-    <t>RAB-1053</t>
-  </si>
-  <si>
-    <t>KEN-1025</t>
-  </si>
-  <si>
-    <t>SEA-1005</t>
-  </si>
-  <si>
-    <t>SEA-1006</t>
-  </si>
-  <si>
-    <t>SEA-1008</t>
-  </si>
-  <si>
-    <t>SEA-1010</t>
-  </si>
-  <si>
-    <t>OUE-1008</t>
-  </si>
-  <si>
-    <t>OUE-1028</t>
-  </si>
-  <si>
-    <t>OUE-1010</t>
-  </si>
-  <si>
-    <t>OUE-1044</t>
-  </si>
-  <si>
-    <t>OUE-1046</t>
-  </si>
-  <si>
-    <t>OUE-1006</t>
-  </si>
-  <si>
-    <t>OUE-1021</t>
-  </si>
-  <si>
-    <t>OUE-1020</t>
-  </si>
-  <si>
-    <t>SEA-1020</t>
-  </si>
-  <si>
-    <t>SEA-1021</t>
-  </si>
-  <si>
-    <t>SSK-1010</t>
-  </si>
-  <si>
-    <t>SSK-1011</t>
-  </si>
-  <si>
-    <t>SSK-1021</t>
-  </si>
-  <si>
-    <t>SSK-1008</t>
-  </si>
-  <si>
-    <t>OUE-1043</t>
-  </si>
-  <si>
-    <t>OUE-1042</t>
-  </si>
-  <si>
-    <t>OUE-1047</t>
-  </si>
-  <si>
-    <t>SSK-1018</t>
-  </si>
-  <si>
-    <t>SEA-1009</t>
-  </si>
-  <si>
-    <t>DGU-1003</t>
-  </si>
-  <si>
-    <t>DGU-1013</t>
-  </si>
-  <si>
-    <t>DGU-1021</t>
-  </si>
-  <si>
-    <t>DGU-1020</t>
-  </si>
-  <si>
-    <t>GNZ-1001</t>
-  </si>
-  <si>
-    <t>GNZ-1003</t>
-  </si>
-  <si>
-    <t>KHE-1014</t>
-  </si>
-  <si>
-    <t>KHE-1012</t>
-  </si>
-  <si>
-    <t>KHE-1011</t>
-  </si>
-  <si>
-    <t>KHE-1013</t>
-  </si>
-  <si>
-    <t>KHE-1028</t>
-  </si>
-  <si>
-    <t>KHE-1009</t>
-  </si>
-  <si>
-    <t>MDA-1001</t>
-  </si>
-  <si>
-    <t>MDA-1002</t>
-  </si>
-  <si>
-    <t>MDA-1003</t>
-  </si>
-  <si>
-    <t>KEN-1053</t>
-  </si>
-  <si>
-    <t>KEN-1059</t>
-  </si>
-  <si>
-    <t>RMM-1009</t>
-  </si>
-  <si>
-    <t>RMM-1001</t>
-  </si>
-  <si>
-    <t>RMM-1002</t>
-  </si>
-  <si>
-    <t>RMM-1010</t>
-  </si>
-  <si>
-    <t>RMM-1007</t>
-  </si>
-  <si>
-    <t>RMM-1003</t>
-  </si>
-  <si>
-    <t>SBT-1006</t>
-  </si>
-  <si>
-    <t>RAB-1091</t>
-  </si>
-  <si>
-    <t>RAB-1296</t>
-  </si>
-  <si>
-    <t>RAB-1297</t>
-  </si>
-  <si>
-    <t>RAB-1502</t>
-  </si>
-  <si>
-    <t>RAB-1299</t>
-  </si>
-  <si>
-    <t>RAB-1708</t>
-  </si>
-  <si>
-    <t>RAB-1710</t>
-  </si>
-  <si>
-    <t>RAB-1505</t>
-  </si>
-  <si>
-    <t>RAB-1022</t>
-  </si>
-  <si>
-    <t>RAB-1049</t>
-  </si>
-  <si>
-    <t>RAB-1050</t>
-  </si>
-  <si>
-    <t>RAB-1295</t>
-  </si>
-  <si>
-    <t>Tanger</t>
-  </si>
-  <si>
-    <t>AHO-1026</t>
-  </si>
-  <si>
-    <t>BBR-1001</t>
-  </si>
-  <si>
-    <t>BBR-1014</t>
-  </si>
-  <si>
-    <t>BNH-1004</t>
-  </si>
-  <si>
-    <t>BRI-1008</t>
-  </si>
-  <si>
-    <t>CHF-1005</t>
-  </si>
-  <si>
-    <t>CHF-1006</t>
-  </si>
-  <si>
-    <t>CHF-1008</t>
-  </si>
-  <si>
-    <t>CHF-1012</t>
-  </si>
-  <si>
-    <t>Fibré FON</t>
-  </si>
-  <si>
-    <t>CHF-1013</t>
-  </si>
-  <si>
-    <t>CHF-1020</t>
-  </si>
-  <si>
-    <t>ODL-1001</t>
-  </si>
-  <si>
-    <t>ODL-1002</t>
-  </si>
-  <si>
-    <t>ODL-1004</t>
-  </si>
-  <si>
-    <t>ODL-1007</t>
-  </si>
-  <si>
-    <t>ODL-1008</t>
-  </si>
-  <si>
-    <t>ODL-1015</t>
-  </si>
-  <si>
-    <t>ODL-1016</t>
-  </si>
-  <si>
-    <t>TET-1016</t>
-  </si>
-  <si>
-    <t>TET-1018</t>
-  </si>
-  <si>
-    <t>TET-1023</t>
-  </si>
-  <si>
-    <t>TET-1026</t>
-  </si>
-  <si>
-    <t>TET-1027</t>
-  </si>
-  <si>
-    <t>TET-1037</t>
-  </si>
-  <si>
-    <t>TET-1042</t>
-  </si>
-  <si>
-    <t>TET-1048</t>
-  </si>
-  <si>
-    <t>TET-1065</t>
-  </si>
-  <si>
-    <t>TET-1074</t>
-  </si>
-  <si>
-    <t>TET-1089</t>
-  </si>
-  <si>
-    <t>TET-1098</t>
-  </si>
-  <si>
-    <t>TET-1109</t>
-  </si>
-  <si>
-    <t>TET-1121</t>
-  </si>
-  <si>
-    <t>TET-1126</t>
-  </si>
-  <si>
-    <t>TET-1136</t>
-  </si>
-  <si>
-    <t>TET-1137</t>
-  </si>
-  <si>
-    <t>TET-1186</t>
-  </si>
-  <si>
-    <t>TET-1191</t>
-  </si>
-  <si>
-    <t>ASI-1004</t>
-  </si>
-  <si>
-    <t>ASI-1006</t>
-  </si>
-  <si>
-    <t>Metro IP</t>
-  </si>
-  <si>
-    <t>ASI-1007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASI-1026 </t>
-  </si>
-  <si>
-    <t>FON</t>
-  </si>
-  <si>
-    <t>LAR-1011</t>
-  </si>
-  <si>
-    <t>LAR-1046</t>
-  </si>
-  <si>
-    <t>MYB-1001</t>
-  </si>
-  <si>
-    <t>CWDM +Métro IP</t>
-  </si>
-  <si>
-    <t>TAN-1010</t>
-  </si>
-  <si>
-    <t>Métro ( Ex WDM)</t>
-  </si>
-  <si>
-    <t>Nok</t>
-  </si>
-  <si>
-    <t>TAN-1019</t>
-  </si>
-  <si>
-    <t>TAN-1038</t>
-  </si>
-  <si>
-    <t>TAN-1050</t>
-  </si>
-  <si>
-    <t>TAN-1051</t>
-  </si>
-  <si>
-    <t>TAN-1068</t>
-  </si>
-  <si>
-    <t>TAN-1124</t>
-  </si>
-  <si>
-    <t>TAN-1128</t>
-  </si>
-  <si>
-    <t>TAN-1161</t>
-  </si>
-  <si>
-    <t>TAN-1230</t>
-  </si>
-  <si>
-    <t>TAN-1323</t>
-  </si>
-  <si>
-    <t>TAN-1360</t>
-  </si>
-  <si>
-    <t>TAN-1396</t>
-  </si>
-  <si>
-    <t>TGS-1002</t>
-  </si>
-  <si>
-    <t>Metro IP ( CWDM installé)</t>
-  </si>
-  <si>
-    <t>TET-1080</t>
-  </si>
-  <si>
-    <t>TET-1052</t>
-  </si>
-  <si>
-    <t>TET-1170</t>
-  </si>
-  <si>
-    <t>CHF-1033</t>
-  </si>
-  <si>
-    <t>TET-1091</t>
-  </si>
-  <si>
-    <t>TET-1280</t>
-  </si>
-  <si>
-    <t>TET-1019</t>
-  </si>
-  <si>
-    <t>TET-1038</t>
-  </si>
-  <si>
-    <t>TET-1084</t>
-  </si>
-  <si>
-    <t>TET-1092</t>
-  </si>
-  <si>
-    <t>TET-1103</t>
-  </si>
-  <si>
-    <t>TET-1149</t>
-  </si>
-  <si>
-    <t>TET-1160</t>
-  </si>
-  <si>
-    <t>TET-1203</t>
-  </si>
-  <si>
-    <t>TAN-1142</t>
-  </si>
-  <si>
-    <t>TAN-1149</t>
-  </si>
-  <si>
-    <t>TAN-1170</t>
-  </si>
-  <si>
-    <t>TAN-1176</t>
-  </si>
-  <si>
-    <t>TAN-1202</t>
-  </si>
-  <si>
-    <t>TAN-1268</t>
-  </si>
-  <si>
-    <t>TAN-1300</t>
-  </si>
-  <si>
-    <t>TAN-1325</t>
-  </si>
-  <si>
-    <t>TAN-1326</t>
-  </si>
-  <si>
-    <t>TET-1172</t>
-  </si>
-  <si>
-    <t>TET-1183</t>
-  </si>
-  <si>
-    <t>TET-1212</t>
-  </si>
-  <si>
-    <t>TET-1214</t>
-  </si>
-  <si>
-    <t>TET-1227</t>
-  </si>
-  <si>
-    <t>TET-1232</t>
-  </si>
-  <si>
-    <t>TET-1241</t>
-  </si>
-  <si>
-    <t>TET-1246</t>
-  </si>
-  <si>
-    <t>TET-1249</t>
-  </si>
-  <si>
-    <t>marrakech</t>
-  </si>
-  <si>
-    <t>MNB-1011</t>
-  </si>
-  <si>
-    <t>Amine chayaoui</t>
   </si>
   <si>
     <t>BF06FA3PAGC5AB7</t>
@@ -36726,60 +36732,60 @@
         <v>727</v>
       </c>
       <c r="I653" s="10" t="s">
-        <v>508</v>
+        <v>728</v>
       </c>
       <c r="J653" s="10" t="s">
-        <v>508</v>
+        <v>728</v>
       </c>
       <c r="K653" s="10"/>
       <c r="L653" s="10" t="s">
-        <v>508</v>
+        <v>728</v>
       </c>
       <c r="M653" s="10" t="s">
-        <v>508</v>
+        <v>728</v>
       </c>
       <c r="N653" s="10" t="s">
-        <v>508</v>
+        <v>728</v>
       </c>
       <c r="O653" s="10" t="s">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="Q653" s="10" t="s">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="R653" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="S653" s="10" t="s">
         <v>728</v>
-      </c>
-      <c r="S653" s="10" t="s">
-        <v>508</v>
       </c>
       <c r="T653" s="10"/>
       <c r="V653" s="10" t="s">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="W653" s="10" t="s">
-        <v>508</v>
+        <v>728</v>
       </c>
       <c r="X653" s="10" t="s">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="Y653" s="10" t="s">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="Z653" s="10" t="s">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="AA653" s="10" t="s">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="AB653" s="10" t="s">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="AC653" s="10" t="s">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="AD653" s="10" t="s">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="AE653" s="10" t="s">
         <v>40</v>
@@ -36937,22 +36943,22 @@
     </row>
     <row r="2" spans="1:22" customHeight="1" ht="27">
       <c r="A2" s="16" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:22" customHeight="1" ht="24">
@@ -36981,7 +36987,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -36992,7 +36998,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="22" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B8" s="17" t="str">
         <f>+IF($F$1=1,"Greenfield",IF($F$1=2,"Esthétique",""))</f>
@@ -37002,7 +37008,7 @@
     <row r="9" spans="1:22" customHeight="1" ht="15"/>
     <row r="10" spans="1:22" customHeight="1" ht="24.75">
       <c r="B10" s="145" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C10" s="146"/>
       <c r="D10" s="146"/>
@@ -37011,7 +37017,7 @@
       <c r="G10" s="146"/>
       <c r="H10" s="146"/>
       <c r="I10" s="145" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J10" s="146"/>
       <c r="K10" s="146"/>
@@ -37021,70 +37027,70 @@
     </row>
     <row r="11" spans="1:22" customHeight="1" ht="46.5" s="11" customFormat="1">
       <c r="A11" s="46" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O11" s="63" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="Q11" s="64" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="R11" s="64" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="S11" s="64" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="T11" s="64" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="U11" s="64" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="V11" s="65" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:22" customHeight="1" ht="21.75">
@@ -37356,7 +37362,7 @@
     </row>
     <row r="15" spans="1:22" customHeight="1" ht="21.75">
       <c r="A15" s="37" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B15" s="23">
         <f>IF($B$8="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A15),_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A15,'Données-Globales'!$D:$D,'Traitement TDB'!$B$8))</f>
@@ -37445,7 +37451,7 @@
     </row>
     <row r="16" spans="1:22" customHeight="1" ht="21.75">
       <c r="A16" s="37" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B16" s="23">
         <f>IF($B$8="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A16),_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A16,'Données-Globales'!$D:$D,'Traitement TDB'!$B$8))</f>
@@ -37534,7 +37540,7 @@
     </row>
     <row r="17" spans="1:22" customHeight="1" ht="21.75">
       <c r="A17" s="37" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B17" s="23">
         <f>IF($B$8="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A17),_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A17,'Données-Globales'!$D:$D,'Traitement TDB'!$B$8))</f>
@@ -37623,7 +37629,7 @@
     </row>
     <row r="18" spans="1:22" customHeight="1" ht="21.75">
       <c r="A18" s="37" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B18" s="23">
         <f>IF($B$8="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A18),_xlfn.COUNTIFS('Données-Globales'!$A:$A,'Traitement TDB'!$A18,'Données-Globales'!$D:$D,'Traitement TDB'!$B$8))</f>
@@ -37713,7 +37719,7 @@
     <row r="20" spans="1:22" customHeight="1" ht="15"/>
     <row r="21" spans="1:22" customHeight="1" ht="19">
       <c r="B21" s="145" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C21" s="146"/>
       <c r="D21" s="146"/>
@@ -37722,7 +37728,7 @@
       <c r="G21" s="146"/>
       <c r="H21" s="146"/>
       <c r="I21" s="145" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J21" s="146"/>
       <c r="K21" s="146"/>
@@ -37730,7 +37736,7 @@
       <c r="M21" s="146"/>
       <c r="N21" s="147"/>
       <c r="O21" s="148" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="P21" s="149"/>
       <c r="Q21" s="149"/>
@@ -37742,75 +37748,75 @@
     </row>
     <row r="22" spans="1:22" customHeight="1" ht="87.5">
       <c r="A22" s="67" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G22" s="69" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H22" s="70" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="K22" s="69" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="L22" s="69" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="M22" s="69" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="N22" s="70" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="O22" s="66" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="P22" s="66" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="Q22" s="66" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="R22" s="66" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="S22" s="66" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="T22" s="66" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="U22" s="66" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="V22" s="66" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:22" customHeight="1" ht="18.5">
       <c r="A23" s="39" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B23" s="40">
         <f>+SUBTOTAL(9,B12:B18)</f>
@@ -37997,16 +38003,16 @@
   <sheetData>
     <row r="2" spans="1:17">
       <c r="A2" s="16" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -38017,7 +38023,7 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="15.5">
       <c r="A5" s="22" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B5" s="94" t="s">
         <v>38</v>
@@ -38030,7 +38036,7 @@
     <row r="7" spans="1:17" customHeight="1" ht="15"/>
     <row r="8" spans="1:17" customHeight="1" ht="19">
       <c r="B8" s="151" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C8" s="152"/>
       <c r="D8" s="152"/>
@@ -38039,7 +38045,7 @@
       <c r="G8" s="152"/>
       <c r="H8" s="152"/>
       <c r="I8" s="151" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J8" s="152"/>
       <c r="K8" s="152"/>
@@ -38049,46 +38055,46 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="29.5" s="11" customFormat="1">
       <c r="A9" s="73" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H9" s="74" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N9" s="75" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O9" s="15"/>
     </row>
@@ -38266,7 +38272,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="78" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B13" s="80">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A13),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A13,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38323,7 +38329,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="78" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B14" s="80">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A14),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A14,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38380,7 +38386,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="78" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B15" s="80">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A15),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A15,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38437,7 +38443,7 @@
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="15">
       <c r="A16" s="78" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B16" s="80">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A16),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A16,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38494,7 +38500,7 @@
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="19">
       <c r="A17" s="79" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B17" s="93">
         <f>SUM(B10:B16)</f>
@@ -38552,31 +38558,31 @@
     <row r="20" spans="1:17" customHeight="1" ht="15"/>
     <row r="21" spans="1:17" customHeight="1" ht="62.5" s="11" customFormat="1">
       <c r="A21" s="85" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E21" s="87" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G21" s="87" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H21" s="87" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I21" s="88" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -38699,7 +38705,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="51" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B25" s="54">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A25,'Données-Globales'!$I:$I,$A$2),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A25,'Données-Globales'!$I:$I,$A$2,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38736,7 +38742,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="51" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B26" s="54">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A26,'Données-Globales'!$I:$I,$A$2),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A26,'Données-Globales'!$I:$I,$A$2,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38773,7 +38779,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="51" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B27" s="54">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A27,'Données-Globales'!$I:$I,$A$2),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A27,'Données-Globales'!$I:$I,$A$2,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38810,7 +38816,7 @@
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="15">
       <c r="A28" s="51" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B28" s="54">
         <f>IF($B$5="",_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A28,'Données-Globales'!$I:$I,$A$2),_xlfn.COUNTIFS('Données-Globales'!$A:$A,Synthèse!$A28,'Données-Globales'!$I:$I,$A$2,'Données-Globales'!$D:$D,Synthèse!$B$5))</f>
@@ -38847,7 +38853,7 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="19">
       <c r="A29" s="52" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B29" s="89">
         <f>SUM(B22:B28)</f>
@@ -38925,7 +38931,7 @@
     <row r="1" spans="1:18" customHeight="1" ht="29.5">
       <c r="B1" s="34"/>
       <c r="C1" s="139" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D1" s="139"/>
       <c r="E1" s="139"/>
@@ -38971,7 +38977,7 @@
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="140" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="J3" s="140"/>
       <c r="K3" s="140"/>
@@ -38995,7 +39001,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="140" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="J4" s="140"/>
       <c r="K4" s="140"/>
@@ -39019,7 +39025,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="141" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="J5" s="141"/>
       <c r="K5" s="141"/>
@@ -39043,7 +39049,7 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="140" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="J6" s="140"/>
       <c r="K6" s="140"/>
@@ -39759,16 +39765,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -39776,7 +39782,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
@@ -39791,7 +39797,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
@@ -39829,7 +39835,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
@@ -39842,7 +39848,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -39855,10 +39861,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>6</v>
@@ -39870,7 +39876,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
@@ -39883,10 +39889,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
@@ -39898,10 +39904,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -39913,10 +39919,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -39928,10 +39934,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>11</v>
@@ -39943,10 +39949,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>12</v>
@@ -39958,10 +39964,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
@@ -39973,10 +39979,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>14</v>
@@ -39988,7 +39994,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -40001,10 +40007,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>16</v>
@@ -40016,10 +40022,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>17</v>
@@ -40031,10 +40037,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>18</v>
@@ -40046,10 +40052,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>19</v>
@@ -40061,7 +40067,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -40074,10 +40080,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>21</v>
@@ -40089,10 +40095,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>22</v>
@@ -40104,10 +40110,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>23</v>
@@ -40119,10 +40125,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>24</v>
@@ -40134,10 +40140,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>25</v>
@@ -40149,10 +40155,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>26</v>
@@ -40164,10 +40170,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>27</v>
@@ -40179,10 +40185,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -40194,10 +40200,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>29</v>
@@ -40209,10 +40215,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>30</v>
@@ -40224,10 +40230,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>31</v>
@@ -40239,10 +40245,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>32</v>
@@ -40254,10 +40260,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>33</v>
@@ -40269,10 +40275,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>34</v>
@@ -40370,7 +40376,7 @@
   <sheetData>
     <row r="2" spans="1:14" customHeight="1" ht="31.25">
       <c r="B2" s="164" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C2" s="164"/>
       <c r="D2" s="164"/>
@@ -40380,7 +40386,7 @@
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="28.75">
       <c r="B3" s="163" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C3" s="163"/>
       <c r="D3" s="163"/>
@@ -40390,7 +40396,7 @@
     </row>
     <row r="4" spans="1:14" customHeight="1" ht="24">
       <c r="B4" s="165" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C4" s="165"/>
       <c r="D4" s="165"/>
@@ -40400,425 +40406,425 @@
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="20.4">
       <c r="B6" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="22.75">
       <c r="B7" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="6" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="1" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="B17" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="B18" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="B19" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="B20" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="B21" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="B23" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="B24" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="B27" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D27" s="170" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E27" s="171"/>
       <c r="F27" s="170" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="G27" s="171"/>
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D28" s="170" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E28" s="172"/>
       <c r="F28" s="172"/>
@@ -40826,10 +40832,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="B29" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -40838,13 +40844,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="B30" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D30" s="170" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E30" s="172"/>
       <c r="F30" s="172"/>
@@ -40852,13 +40858,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D31" s="170" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E31" s="172"/>
       <c r="F31" s="172"/>
@@ -40867,11 +40873,11 @@
     <row r="32" spans="1:14" customHeight="1" ht="15"/>
     <row r="33" spans="1:14" customHeight="1" ht="14.5">
       <c r="B33" s="166" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C33" s="167"/>
       <c r="D33" s="166" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E33" s="173"/>
       <c r="F33" s="173"/>
@@ -40927,7 +40933,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="B40" s="154" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C40" s="155"/>
       <c r="D40" s="155"/>
@@ -41001,19 +41007,19 @@
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="23.5">
       <c r="B50" s="3" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="B51" s="137" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C51" s="137" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D51" s="138"/>
       <c r="E51" s="137" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="N51" s="8"/>
     </row>
@@ -41089,95 +41095,95 @@
     </row>
     <row r="67" spans="1:14">
       <c r="B67" s="137" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C67" s="137" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E67" s="137" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="B83" s="137" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C83" s="137" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E83" s="137" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="99" spans="1:14" customHeight="1" ht="23.5">
       <c r="B99" s="3" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="B100" s="138" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C100" s="138" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E100" s="138" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="B116" s="138" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C116" s="138" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E116" s="138" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="B132" s="138" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C132" s="138" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E132" s="138" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="B148" s="138" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C148" s="138" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E148" s="138" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="B164" s="138" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C164" s="138" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E164" s="138" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="179" spans="1:14">
       <c r="B179" s="138" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C179" s="138" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E179" s="138" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
